--- a/public/accidents-excel/brabant2022.xlsx
+++ b/public/accidents-excel/brabant2022.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1068"/>
+  <dimension ref="A1:S1068"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,6 +523,11 @@
           <t>Latitude_tot</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Points</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -585,6 +590,7 @@
       <c r="R2" t="n">
         <v>1</v>
       </c>
+      <c r="S2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -643,6 +649,7 @@
       <c r="R3" t="n">
         <v>1</v>
       </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -701,6 +708,7 @@
       <c r="R4" t="n">
         <v>1</v>
       </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -759,6 +767,7 @@
       <c r="R5" t="n">
         <v>1</v>
       </c>
+      <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -821,6 +830,7 @@
       <c r="R6" t="n">
         <v>1</v>
       </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -879,6 +889,7 @@
       <c r="R7" t="n">
         <v>1</v>
       </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -939,6 +950,7 @@
       <c r="R8" t="n">
         <v>1</v>
       </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -999,6 +1011,7 @@
       <c r="R9" t="n">
         <v>1</v>
       </c>
+      <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1061,6 +1074,7 @@
       <c r="R10" t="n">
         <v>1</v>
       </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1123,6 +1137,7 @@
       <c r="R11" t="n">
         <v>1</v>
       </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1185,6 +1200,7 @@
       <c r="R12" t="n">
         <v>1</v>
       </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1247,6 +1263,7 @@
       <c r="R13" t="n">
         <v>1</v>
       </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1309,6 +1326,7 @@
       <c r="R14" t="n">
         <v>1</v>
       </c>
+      <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1369,6 +1387,7 @@
       <c r="R15" t="n">
         <v>1</v>
       </c>
+      <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1429,6 +1448,7 @@
       <c r="R16" t="n">
         <v>1</v>
       </c>
+      <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1491,6 +1511,7 @@
       <c r="R17" t="n">
         <v>1</v>
       </c>
+      <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1551,6 +1572,7 @@
       <c r="R18" t="n">
         <v>1</v>
       </c>
+      <c r="S18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1613,6 +1635,7 @@
       <c r="R19" t="n">
         <v>1</v>
       </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1676,6 +1699,11 @@
       </c>
       <c r="R20" t="n">
         <v>51.737177681</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5.650715,51.737184;5.650061,51.737183;5.649984,51.737183;5.649703,51.737183;5.6494,51.737185;5.648041,51.737176;5.64774,51.737173;5.646963,51.737147;5.645052,51.737152;5.644094,51.737155;5.640816,51.737165;5.640579,51.737179</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1735,6 +1763,7 @@
       <c r="R21" t="n">
         <v>1</v>
       </c>
+      <c r="S21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1797,6 +1826,7 @@
       <c r="R22" t="n">
         <v>1</v>
       </c>
+      <c r="S22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1859,6 +1889,7 @@
       <c r="R23" t="n">
         <v>1</v>
       </c>
+      <c r="S23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1917,6 +1948,7 @@
       <c r="R24" t="n">
         <v>1</v>
       </c>
+      <c r="S24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1979,6 +2011,7 @@
       <c r="R25" t="n">
         <v>1</v>
       </c>
+      <c r="S25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2041,6 +2074,7 @@
       <c r="R26" t="n">
         <v>1</v>
       </c>
+      <c r="S26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2102,6 +2136,11 @@
       </c>
       <c r="R27" t="n">
         <v>51.662075317</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>5.057893,51.666506;5.058028,51.665837;5.057951,51.665634;5.057985,51.665151;5.057982,51.66502;5.05797,51.664912;5.05793,51.664812;5.057891,51.66473;5.057818,51.664645;5.057739,51.664586;5.0576,51.664501;5.057432,51.664435;5.05726,51.664401;5.057079,51.664382;5.056893,51.664384;5.056728,51.66441;5.056586,51.664446;5.056429,51.664512;5.056328,51.66458;5.056236,51.664653;5.056155,51.664764;5.056092,51.664899;5.056064,51.66504;5.05604,51.665163;5.056033,51.665347;5.056028,51.665463;5.056029,51.665518;5.054334,51.665446;5.053872,51.665432;5.053647,51.665427;5.053619,51.665464;5.053575,51.665495;5.05352,51.665518;5.053457,51.665532;5.0534,51.665535;5.053343,51.66553;5.053281,51.665513;5.053227,51.665488;5.053187,51.665454;5.053162,51.665415;5.053156,51.665374;5.053166,51.665333;5.053194,51.665296;5.053236,51.665264;5.053291,51.66524;5.053353,51.665226;5.053416,51.665222;5.053478,51.665228;5.053542,51.665246;5.053596,51.665275;5.053635,51.665311;5.053656,51.665352;5.053881,51.665371;5.053967,51.665376;5.054309,51.665395;5.055702,51.665452;5.055803,51.665416;5.05586,51.665395;5.055891,51.665363;5.055913,51.665323;5.055942,51.665168;5.055953,51.665035;5.055981,51.664901;5.056031,51.664779;5.056099,51.664659;5.056186,51.664567;5.056285,51.664476;5.056384,51.664409;5.056692,51.664203;5.056908,51.664055;5.05711,51.663896;5.057232,51.663785;5.057321,51.663682;5.057408,51.663582;5.057526,51.663392;5.057588,51.663277;5.057632,51.663181;5.057668,51.663077;5.057691,51.662988;5.057724,51.662813;5.057734,51.662676;5.057728,51.662586;5.057716,51.662431;5.057678,51.66229;5.057603,51.662078</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -2161,6 +2200,7 @@
       <c r="R28" t="n">
         <v>1</v>
       </c>
+      <c r="S28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2219,6 +2259,7 @@
       <c r="R29" t="n">
         <v>1</v>
       </c>
+      <c r="S29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2281,6 +2322,7 @@
       <c r="R30" t="n">
         <v>1</v>
       </c>
+      <c r="S30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2343,6 +2385,7 @@
       <c r="R31" t="n">
         <v>1</v>
       </c>
+      <c r="S31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2405,6 +2448,7 @@
       <c r="R32" t="n">
         <v>1</v>
       </c>
+      <c r="S32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2463,6 +2507,7 @@
       <c r="R33" t="n">
         <v>1</v>
       </c>
+      <c r="S33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2521,6 +2566,7 @@
       <c r="R34" t="n">
         <v>1</v>
       </c>
+      <c r="S34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2583,6 +2629,7 @@
       <c r="R35" t="n">
         <v>1</v>
       </c>
+      <c r="S35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2641,6 +2688,7 @@
       <c r="R36" t="n">
         <v>1</v>
       </c>
+      <c r="S36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2703,6 +2751,7 @@
       <c r="R37" t="n">
         <v>1</v>
       </c>
+      <c r="S37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2765,6 +2814,7 @@
       <c r="R38" t="n">
         <v>1</v>
       </c>
+      <c r="S38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2825,6 +2875,7 @@
       <c r="R39" t="n">
         <v>1</v>
       </c>
+      <c r="S39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2887,6 +2938,7 @@
       <c r="R40" t="n">
         <v>1</v>
       </c>
+      <c r="S40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2945,6 +2997,7 @@
       <c r="R41" t="n">
         <v>1</v>
       </c>
+      <c r="S41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -3007,6 +3060,7 @@
       <c r="R42" t="n">
         <v>1</v>
       </c>
+      <c r="S42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -3065,6 +3119,7 @@
       <c r="R43" t="n">
         <v>1</v>
       </c>
+      <c r="S43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -3125,6 +3180,7 @@
       <c r="R44" t="n">
         <v>1</v>
       </c>
+      <c r="S44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3185,6 +3241,7 @@
       <c r="R45" t="n">
         <v>1</v>
       </c>
+      <c r="S45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3245,6 +3302,7 @@
       <c r="R46" t="n">
         <v>1</v>
       </c>
+      <c r="S46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3303,6 +3361,7 @@
       <c r="R47" t="n">
         <v>1</v>
       </c>
+      <c r="S47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3365,6 +3424,7 @@
       <c r="R48" t="n">
         <v>1</v>
       </c>
+      <c r="S48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3425,6 +3485,7 @@
       <c r="R49" t="n">
         <v>1</v>
       </c>
+      <c r="S49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3483,6 +3544,7 @@
       <c r="R50" t="n">
         <v>1</v>
       </c>
+      <c r="S50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3545,6 +3607,7 @@
       <c r="R51" t="n">
         <v>1</v>
       </c>
+      <c r="S51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3607,6 +3670,7 @@
       <c r="R52" t="n">
         <v>1</v>
       </c>
+      <c r="S52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3665,6 +3729,7 @@
       <c r="R53" t="n">
         <v>1</v>
       </c>
+      <c r="S53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3723,6 +3788,7 @@
       <c r="R54" t="n">
         <v>1</v>
       </c>
+      <c r="S54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3781,6 +3847,7 @@
       <c r="R55" t="n">
         <v>1</v>
       </c>
+      <c r="S55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3843,6 +3910,7 @@
       <c r="R56" t="n">
         <v>1</v>
       </c>
+      <c r="S56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3901,6 +3969,7 @@
       <c r="R57" t="n">
         <v>1</v>
       </c>
+      <c r="S57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3959,6 +4028,7 @@
       <c r="R58" t="n">
         <v>1</v>
       </c>
+      <c r="S58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -4021,6 +4091,7 @@
       <c r="R59" t="n">
         <v>1</v>
       </c>
+      <c r="S59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -4079,6 +4150,7 @@
       <c r="R60" t="n">
         <v>1</v>
       </c>
+      <c r="S60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -4137,6 +4209,7 @@
       <c r="R61" t="n">
         <v>1</v>
       </c>
+      <c r="S61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -4199,6 +4272,7 @@
       <c r="R62" t="n">
         <v>1</v>
       </c>
+      <c r="S62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -4261,6 +4335,7 @@
       <c r="R63" t="n">
         <v>1</v>
       </c>
+      <c r="S63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -4323,6 +4398,7 @@
       <c r="R64" t="n">
         <v>1</v>
       </c>
+      <c r="S64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -4383,6 +4459,7 @@
       <c r="R65" t="n">
         <v>1</v>
       </c>
+      <c r="S65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -4441,6 +4518,7 @@
       <c r="R66" t="n">
         <v>1</v>
       </c>
+      <c r="S66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4501,6 +4579,7 @@
       <c r="R67" t="n">
         <v>1</v>
       </c>
+      <c r="S67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4559,6 +4638,7 @@
       <c r="R68" t="n">
         <v>1</v>
       </c>
+      <c r="S68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4621,6 +4701,7 @@
       <c r="R69" t="n">
         <v>1</v>
       </c>
+      <c r="S69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4683,6 +4764,7 @@
       <c r="R70" t="n">
         <v>1</v>
       </c>
+      <c r="S70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4745,6 +4827,7 @@
       <c r="R71" t="n">
         <v>1</v>
       </c>
+      <c r="S71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4803,6 +4886,7 @@
       <c r="R72" t="n">
         <v>1</v>
       </c>
+      <c r="S72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4865,6 +4949,7 @@
       <c r="R73" t="n">
         <v>1</v>
       </c>
+      <c r="S73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4923,6 +5008,7 @@
       <c r="R74" t="n">
         <v>1</v>
       </c>
+      <c r="S74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4985,6 +5071,7 @@
       <c r="R75" t="n">
         <v>1</v>
       </c>
+      <c r="S75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -5047,6 +5134,7 @@
       <c r="R76" t="n">
         <v>1</v>
       </c>
+      <c r="S76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -5109,6 +5197,7 @@
       <c r="R77" t="n">
         <v>1</v>
       </c>
+      <c r="S77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -5167,6 +5256,7 @@
       <c r="R78" t="n">
         <v>1</v>
       </c>
+      <c r="S78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -5229,6 +5319,7 @@
       <c r="R79" t="n">
         <v>1</v>
       </c>
+      <c r="S79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -5289,6 +5380,7 @@
       <c r="R80" t="n">
         <v>1</v>
       </c>
+      <c r="S80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -5351,6 +5443,7 @@
       <c r="R81" t="n">
         <v>1</v>
       </c>
+      <c r="S81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5409,6 +5502,7 @@
       <c r="R82" t="n">
         <v>1</v>
       </c>
+      <c r="S82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5469,6 +5563,7 @@
       <c r="R83" t="n">
         <v>1</v>
       </c>
+      <c r="S83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5527,6 +5622,7 @@
       <c r="R84" t="n">
         <v>1</v>
       </c>
+      <c r="S84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -5589,6 +5685,7 @@
       <c r="R85" t="n">
         <v>1</v>
       </c>
+      <c r="S85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5651,6 +5748,7 @@
       <c r="R86" t="n">
         <v>1</v>
       </c>
+      <c r="S86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5713,6 +5811,7 @@
       <c r="R87" t="n">
         <v>1</v>
       </c>
+      <c r="S87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5775,6 +5874,7 @@
       <c r="R88" t="n">
         <v>1</v>
       </c>
+      <c r="S88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5835,6 +5935,7 @@
       <c r="R89" t="n">
         <v>1</v>
       </c>
+      <c r="S89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5897,6 +5998,7 @@
       <c r="R90" t="n">
         <v>1</v>
       </c>
+      <c r="S90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5957,6 +6059,7 @@
       <c r="R91" t="n">
         <v>1</v>
       </c>
+      <c r="S91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -6019,6 +6122,7 @@
       <c r="R92" t="n">
         <v>1</v>
       </c>
+      <c r="S92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -6081,6 +6185,7 @@
       <c r="R93" t="n">
         <v>1</v>
       </c>
+      <c r="S93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -6143,6 +6248,7 @@
       <c r="R94" t="n">
         <v>1</v>
       </c>
+      <c r="S94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -6201,6 +6307,7 @@
       <c r="R95" t="n">
         <v>1</v>
       </c>
+      <c r="S95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -6259,6 +6366,7 @@
       <c r="R96" t="n">
         <v>1</v>
       </c>
+      <c r="S96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -6321,6 +6429,7 @@
       <c r="R97" t="n">
         <v>1</v>
       </c>
+      <c r="S97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -6383,6 +6492,7 @@
       <c r="R98" t="n">
         <v>1</v>
       </c>
+      <c r="S98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -6445,6 +6555,7 @@
       <c r="R99" t="n">
         <v>1</v>
       </c>
+      <c r="S99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -6507,6 +6618,11 @@
       <c r="R100" t="n">
         <v>51.536922027</v>
       </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>4.238388,51.53576;4.237771,51.535864;4.236636,51.536104;4.235497,51.536356;4.235334,51.536392;4.234549,51.536566;4.234218,51.536634;4.232922,51.536919</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -6569,6 +6685,7 @@
       <c r="R101" t="n">
         <v>1</v>
       </c>
+      <c r="S101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -6627,6 +6744,7 @@
       <c r="R102" t="n">
         <v>1</v>
       </c>
+      <c r="S102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -6689,6 +6807,7 @@
       <c r="R103" t="n">
         <v>1</v>
       </c>
+      <c r="S103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6751,6 +6870,7 @@
       <c r="R104" t="n">
         <v>1</v>
       </c>
+      <c r="S104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6815,6 +6935,7 @@
       <c r="R105" t="n">
         <v>1</v>
       </c>
+      <c r="S105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6873,6 +6994,7 @@
       <c r="R106" t="n">
         <v>1</v>
       </c>
+      <c r="S106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6933,6 +7055,7 @@
       <c r="R107" t="n">
         <v>1</v>
       </c>
+      <c r="S107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6995,6 +7118,7 @@
       <c r="R108" t="n">
         <v>1</v>
       </c>
+      <c r="S108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -7053,6 +7177,7 @@
       <c r="R109" t="n">
         <v>1</v>
       </c>
+      <c r="S109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -7115,6 +7240,7 @@
       <c r="R110" t="n">
         <v>1</v>
       </c>
+      <c r="S110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -7175,6 +7301,7 @@
       <c r="R111" t="n">
         <v>1</v>
       </c>
+      <c r="S111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -7235,6 +7362,7 @@
       <c r="R112" t="n">
         <v>1</v>
       </c>
+      <c r="S112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -7297,6 +7425,7 @@
       <c r="R113" t="n">
         <v>1</v>
       </c>
+      <c r="S113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -7359,6 +7488,7 @@
       <c r="R114" t="n">
         <v>1</v>
       </c>
+      <c r="S114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -7421,6 +7551,7 @@
       <c r="R115" t="n">
         <v>1</v>
       </c>
+      <c r="S115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -7483,6 +7614,7 @@
       <c r="R116" t="n">
         <v>1</v>
       </c>
+      <c r="S116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -7543,6 +7675,7 @@
       <c r="R117" t="n">
         <v>1</v>
       </c>
+      <c r="S117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -7605,6 +7738,7 @@
       <c r="R118" t="n">
         <v>1</v>
       </c>
+      <c r="S118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -7667,6 +7801,7 @@
       <c r="R119" t="n">
         <v>1</v>
       </c>
+      <c r="S119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -7729,6 +7864,7 @@
       <c r="R120" t="n">
         <v>1</v>
       </c>
+      <c r="S120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -7791,6 +7927,7 @@
       <c r="R121" t="n">
         <v>1</v>
       </c>
+      <c r="S121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -7851,6 +7988,7 @@
       <c r="R122" t="n">
         <v>1</v>
       </c>
+      <c r="S122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -7913,6 +8051,7 @@
       <c r="R123" t="n">
         <v>1</v>
       </c>
+      <c r="S123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7973,6 +8112,7 @@
       <c r="R124" t="n">
         <v>1</v>
       </c>
+      <c r="S124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -8035,6 +8175,7 @@
       <c r="R125" t="n">
         <v>1</v>
       </c>
+      <c r="S125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -8095,6 +8236,7 @@
       <c r="R126" t="n">
         <v>1</v>
       </c>
+      <c r="S126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -8157,6 +8299,7 @@
       <c r="R127" t="n">
         <v>1</v>
       </c>
+      <c r="S127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -8219,6 +8362,7 @@
       <c r="R128" t="n">
         <v>1</v>
       </c>
+      <c r="S128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -8277,6 +8421,7 @@
       <c r="R129" t="n">
         <v>1</v>
       </c>
+      <c r="S129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -8339,6 +8484,7 @@
       <c r="R130" t="n">
         <v>1</v>
       </c>
+      <c r="S130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -8401,6 +8547,7 @@
       <c r="R131" t="n">
         <v>1</v>
       </c>
+      <c r="S131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -8459,6 +8606,7 @@
       <c r="R132" t="n">
         <v>1</v>
       </c>
+      <c r="S132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -8521,6 +8669,7 @@
       <c r="R133" t="n">
         <v>1</v>
       </c>
+      <c r="S133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -8583,6 +8732,7 @@
       <c r="R134" t="n">
         <v>1</v>
       </c>
+      <c r="S134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -8641,6 +8791,7 @@
       <c r="R135" t="n">
         <v>1</v>
       </c>
+      <c r="S135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -8703,6 +8854,7 @@
       <c r="R136" t="n">
         <v>1</v>
       </c>
+      <c r="S136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -8761,6 +8913,7 @@
       <c r="R137" t="n">
         <v>1</v>
       </c>
+      <c r="S137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -8821,6 +8974,7 @@
       <c r="R138" t="n">
         <v>1</v>
       </c>
+      <c r="S138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8883,6 +9037,7 @@
       <c r="R139" t="n">
         <v>1</v>
       </c>
+      <c r="S139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8945,6 +9100,7 @@
       <c r="R140" t="n">
         <v>1</v>
       </c>
+      <c r="S140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -9007,6 +9163,7 @@
       <c r="R141" t="n">
         <v>1</v>
       </c>
+      <c r="S141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -9065,6 +9222,7 @@
       <c r="R142" t="n">
         <v>1</v>
       </c>
+      <c r="S142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -9127,6 +9285,7 @@
       <c r="R143" t="n">
         <v>1</v>
       </c>
+      <c r="S143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -9185,6 +9344,7 @@
       <c r="R144" t="n">
         <v>1</v>
       </c>
+      <c r="S144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -9247,6 +9407,7 @@
       <c r="R145" t="n">
         <v>1</v>
       </c>
+      <c r="S145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -9309,6 +9470,7 @@
       <c r="R146" t="n">
         <v>1</v>
       </c>
+      <c r="S146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -9371,6 +9533,7 @@
       <c r="R147" t="n">
         <v>1</v>
       </c>
+      <c r="S147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -9431,6 +9594,7 @@
       <c r="R148" t="n">
         <v>1</v>
       </c>
+      <c r="S148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -9493,6 +9657,7 @@
       <c r="R149" t="n">
         <v>1</v>
       </c>
+      <c r="S149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -9551,6 +9716,7 @@
       <c r="R150" t="n">
         <v>1</v>
       </c>
+      <c r="S150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -9609,6 +9775,7 @@
       <c r="R151" t="n">
         <v>1</v>
       </c>
+      <c r="S151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -9667,6 +9834,7 @@
       <c r="R152" t="n">
         <v>1</v>
       </c>
+      <c r="S152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -9725,6 +9893,7 @@
       <c r="R153" t="n">
         <v>1</v>
       </c>
+      <c r="S153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -9787,6 +9956,7 @@
       <c r="R154" t="n">
         <v>1</v>
       </c>
+      <c r="S154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -9845,6 +10015,7 @@
       <c r="R155" t="n">
         <v>1</v>
       </c>
+      <c r="S155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -9903,6 +10074,7 @@
       <c r="R156" t="n">
         <v>1</v>
       </c>
+      <c r="S156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -9965,6 +10137,7 @@
       <c r="R157" t="n">
         <v>1</v>
       </c>
+      <c r="S157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -10023,6 +10196,7 @@
       <c r="R158" t="n">
         <v>1</v>
       </c>
+      <c r="S158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -10083,6 +10257,7 @@
       <c r="R159" t="n">
         <v>1</v>
       </c>
+      <c r="S159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -10143,6 +10318,7 @@
       <c r="R160" t="n">
         <v>1</v>
       </c>
+      <c r="S160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -10205,6 +10381,7 @@
       <c r="R161" t="n">
         <v>1</v>
       </c>
+      <c r="S161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -10263,6 +10440,7 @@
       <c r="R162" t="n">
         <v>1</v>
       </c>
+      <c r="S162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -10325,6 +10503,7 @@
       <c r="R163" t="n">
         <v>1</v>
       </c>
+      <c r="S163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -10387,6 +10566,7 @@
       <c r="R164" t="n">
         <v>1</v>
       </c>
+      <c r="S164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -10449,6 +10629,7 @@
       <c r="R165" t="n">
         <v>1</v>
       </c>
+      <c r="S165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -10511,6 +10692,7 @@
       <c r="R166" t="n">
         <v>1</v>
       </c>
+      <c r="S166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -10569,6 +10751,7 @@
       <c r="R167" t="n">
         <v>1</v>
       </c>
+      <c r="S167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -10627,6 +10810,7 @@
       <c r="R168" t="n">
         <v>1</v>
       </c>
+      <c r="S168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -10685,6 +10869,7 @@
       <c r="R169" t="n">
         <v>1</v>
       </c>
+      <c r="S169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -10743,6 +10928,7 @@
       <c r="R170" t="n">
         <v>1</v>
       </c>
+      <c r="S170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -10805,6 +10991,7 @@
       <c r="R171" t="n">
         <v>1</v>
       </c>
+      <c r="S171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -10869,6 +11056,11 @@
       <c r="R172" t="n">
         <v>51.624141966</v>
       </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>5.043114,51.683769;5.043362,51.683427;5.043743,51.68293;5.044259,51.682316;5.044693,51.681844;5.04543,51.681095;5.046203,51.680368;5.047107,51.679544;5.047497,51.679207;5.048611,51.678245;5.049489,51.677493;5.049616,51.677384;5.051224,51.676007;5.051675,51.675603;5.051947,51.675369;5.053398,51.674092;5.054,51.673556;5.05473,51.672792;5.05509,51.672386;5.055653,51.671657;5.055804,51.671443;5.056257,51.670732;5.056472,51.670345;5.056579,51.670152;5.056938,51.669412;5.057271,51.668585;5.057475,51.668024;5.057695,51.667312;5.057781,51.667012;5.057839,51.666773;5.058028,51.665837;5.058073,51.665462;5.058137,51.664926;5.058146,51.664413;5.058132,51.664104;5.05811,51.663842;5.058073,51.66353;5.058025,51.663226;5.057925,51.662796;5.057849,51.662531;5.057523,51.66164;5.057445,51.661467;5.057331,51.661237;5.056654,51.660037;5.056205,51.659216;5.05585,51.658441;5.055617,51.65777;5.05557,51.657607;5.055499,51.657264;5.055397,51.656501;5.05539,51.656007;5.055433,51.655107;5.055566,51.654392;5.055716,51.653775;5.056757,51.650746;5.057038,51.650037;5.057451,51.648792;5.057734,51.647773;5.058223,51.645711;5.058297,51.645433;5.058457,51.644829;5.058587,51.644403;5.058969,51.643204;5.059504,51.641749;5.059814,51.641013;5.060388,51.639654;5.060465,51.639469;5.060645,51.638962;5.060821,51.638468;5.061037,51.637641;5.061229,51.636851;5.061301,51.63645;5.061323,51.636348;5.06134,51.636255;5.061366,51.636092;5.061435,51.635673;5.06156,51.634534;5.061638,51.633831;5.061675,51.6334;5.061724,51.632838;5.061745,51.632672;5.06191,51.631236;5.061978,51.630389;5.062158,51.629232;5.06239,51.628076;5.062538,51.627478;5.062786,51.626718;5.063141,51.62576;5.063264,51.625477;5.063734,51.624428;5.06388,51.624143</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -10931,6 +11123,7 @@
       <c r="R173" t="n">
         <v>1</v>
       </c>
+      <c r="S173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -10989,6 +11182,7 @@
       <c r="R174" t="n">
         <v>1</v>
       </c>
+      <c r="S174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -11051,6 +11245,7 @@
       <c r="R175" t="n">
         <v>1</v>
       </c>
+      <c r="S175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -11109,6 +11304,7 @@
       <c r="R176" t="n">
         <v>1</v>
       </c>
+      <c r="S176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -11167,6 +11363,7 @@
       <c r="R177" t="n">
         <v>1</v>
       </c>
+      <c r="S177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -11229,6 +11426,11 @@
       <c r="R178" t="n">
         <v>51.654139194</v>
       </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>5.345064,51.658986;5.34631,51.65811;5.34766,51.65728;5.34871,51.65672;5.35022,51.656;5.3519,51.6553;5.35367,51.65468;5.355346,51.654139</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -11289,6 +11491,7 @@
       <c r="R179" t="n">
         <v>1</v>
       </c>
+      <c r="S179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -11351,6 +11554,7 @@
       <c r="R180" t="n">
         <v>1</v>
       </c>
+      <c r="S180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -11413,6 +11617,7 @@
       <c r="R181" t="n">
         <v>1</v>
       </c>
+      <c r="S181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -11475,6 +11680,7 @@
       <c r="R182" t="n">
         <v>1</v>
       </c>
+      <c r="S182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -11537,6 +11743,7 @@
       <c r="R183" t="n">
         <v>1</v>
       </c>
+      <c r="S183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -11595,6 +11802,7 @@
       <c r="R184" t="n">
         <v>1</v>
       </c>
+      <c r="S184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -11653,6 +11861,7 @@
       <c r="R185" t="n">
         <v>1</v>
       </c>
+      <c r="S185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -11715,6 +11924,7 @@
       <c r="R186" t="n">
         <v>1</v>
       </c>
+      <c r="S186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -11773,6 +11983,7 @@
       <c r="R187" t="n">
         <v>1</v>
       </c>
+      <c r="S187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -11831,6 +12042,7 @@
       <c r="R188" t="n">
         <v>1</v>
       </c>
+      <c r="S188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -11893,6 +12105,7 @@
       <c r="R189" t="n">
         <v>1</v>
       </c>
+      <c r="S189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -11951,6 +12164,7 @@
       <c r="R190" t="n">
         <v>1</v>
       </c>
+      <c r="S190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -12013,6 +12227,7 @@
       <c r="R191" t="n">
         <v>1</v>
       </c>
+      <c r="S191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -12075,6 +12290,7 @@
       <c r="R192" t="n">
         <v>1</v>
       </c>
+      <c r="S192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -12135,6 +12351,7 @@
       <c r="R193" t="n">
         <v>1</v>
       </c>
+      <c r="S193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -12195,6 +12412,7 @@
       <c r="R194" t="n">
         <v>1</v>
       </c>
+      <c r="S194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -12253,6 +12471,7 @@
       <c r="R195" t="n">
         <v>1</v>
       </c>
+      <c r="S195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -12311,6 +12530,7 @@
       <c r="R196" t="n">
         <v>1</v>
       </c>
+      <c r="S196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -12373,6 +12593,7 @@
       <c r="R197" t="n">
         <v>1</v>
       </c>
+      <c r="S197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -12435,6 +12656,7 @@
       <c r="R198" t="n">
         <v>1</v>
       </c>
+      <c r="S198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -12497,6 +12719,7 @@
       <c r="R199" t="n">
         <v>1</v>
       </c>
+      <c r="S199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -12559,6 +12782,7 @@
       <c r="R200" t="n">
         <v>1</v>
       </c>
+      <c r="S200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -12621,6 +12845,7 @@
       <c r="R201" t="n">
         <v>1</v>
       </c>
+      <c r="S201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -12683,6 +12908,7 @@
       <c r="R202" t="n">
         <v>1</v>
       </c>
+      <c r="S202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -12745,6 +12971,7 @@
       <c r="R203" t="n">
         <v>1</v>
       </c>
+      <c r="S203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -12805,6 +13032,7 @@
       <c r="R204" t="n">
         <v>1</v>
       </c>
+      <c r="S204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -12867,6 +13095,7 @@
       <c r="R205" t="n">
         <v>1</v>
       </c>
+      <c r="S205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -12929,6 +13158,7 @@
       <c r="R206" t="n">
         <v>1</v>
       </c>
+      <c r="S206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -12991,6 +13221,7 @@
       <c r="R207" t="n">
         <v>1</v>
       </c>
+      <c r="S207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -13049,6 +13280,7 @@
       <c r="R208" t="n">
         <v>1</v>
       </c>
+      <c r="S208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -13110,6 +13342,11 @@
       </c>
       <c r="R209" t="n">
         <v>51.71947578</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>5.668828,51.727565;5.66883,51.727371;5.668832,51.726839;5.668837,51.726132;5.668843,51.725417;5.66886,51.72417;5.668859,51.722832;5.66886,51.722207;5.668866,51.721653;5.668879,51.719476</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -13169,6 +13406,7 @@
       <c r="R210" t="n">
         <v>1</v>
       </c>
+      <c r="S210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -13229,6 +13467,7 @@
       <c r="R211" t="n">
         <v>1</v>
       </c>
+      <c r="S211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -13289,6 +13528,7 @@
       <c r="R212" t="n">
         <v>1</v>
       </c>
+      <c r="S212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -13349,6 +13589,7 @@
       <c r="R213" t="n">
         <v>1</v>
       </c>
+      <c r="S213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -13409,6 +13650,7 @@
       <c r="R214" t="n">
         <v>1</v>
       </c>
+      <c r="S214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -13467,6 +13709,7 @@
       <c r="R215" t="n">
         <v>1</v>
       </c>
+      <c r="S215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -13525,6 +13768,7 @@
       <c r="R216" t="n">
         <v>1</v>
       </c>
+      <c r="S216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -13585,6 +13829,7 @@
       <c r="R217" t="n">
         <v>1</v>
       </c>
+      <c r="S217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -13647,6 +13892,7 @@
       <c r="R218" t="n">
         <v>1</v>
       </c>
+      <c r="S218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -13709,6 +13955,7 @@
       <c r="R219" t="n">
         <v>1</v>
       </c>
+      <c r="S219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -13769,6 +14016,7 @@
       <c r="R220" t="n">
         <v>1</v>
       </c>
+      <c r="S220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -13829,6 +14077,7 @@
       <c r="R221" t="n">
         <v>1</v>
       </c>
+      <c r="S221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -13891,6 +14140,7 @@
       <c r="R222" t="n">
         <v>1</v>
       </c>
+      <c r="S222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -13953,6 +14203,7 @@
       <c r="R223" t="n">
         <v>1</v>
       </c>
+      <c r="S223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -14013,6 +14264,7 @@
       <c r="R224" t="n">
         <v>1</v>
       </c>
+      <c r="S224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -14075,6 +14327,7 @@
       <c r="R225" t="n">
         <v>1</v>
       </c>
+      <c r="S225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -14137,6 +14390,7 @@
       <c r="R226" t="n">
         <v>1</v>
       </c>
+      <c r="S226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -14197,6 +14451,7 @@
       <c r="R227" t="n">
         <v>1</v>
       </c>
+      <c r="S227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -14255,6 +14510,7 @@
       <c r="R228" t="n">
         <v>1</v>
       </c>
+      <c r="S228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -14313,6 +14569,7 @@
       <c r="R229" t="n">
         <v>1</v>
       </c>
+      <c r="S229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -14375,6 +14632,7 @@
       <c r="R230" t="n">
         <v>1</v>
       </c>
+      <c r="S230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -14433,6 +14691,7 @@
       <c r="R231" t="n">
         <v>1</v>
       </c>
+      <c r="S231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -14496,6 +14755,11 @@
       </c>
       <c r="R232" t="n">
         <v>51.651573211</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>5.05856,51.645398;5.058484,51.64568;5.057925,51.64777;5.057617,51.648802;5.057519,51.649109;5.057161,51.650239;5.056716,51.651488;5.056686,51.651573</t>
+        </is>
       </c>
     </row>
     <row r="233">
@@ -14555,6 +14819,7 @@
       <c r="R233" t="n">
         <v>1</v>
       </c>
+      <c r="S233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -14617,6 +14882,7 @@
       <c r="R234" t="n">
         <v>1</v>
       </c>
+      <c r="S234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -14679,6 +14945,7 @@
       <c r="R235" t="n">
         <v>1</v>
       </c>
+      <c r="S235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -14741,6 +15008,7 @@
       <c r="R236" t="n">
         <v>1</v>
       </c>
+      <c r="S236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -14803,6 +15071,7 @@
       <c r="R237" t="n">
         <v>1</v>
       </c>
+      <c r="S237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -14865,6 +15134,7 @@
       <c r="R238" t="n">
         <v>1</v>
       </c>
+      <c r="S238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -14927,6 +15197,7 @@
       <c r="R239" t="n">
         <v>1</v>
       </c>
+      <c r="S239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -14989,6 +15260,7 @@
       <c r="R240" t="n">
         <v>1</v>
       </c>
+      <c r="S240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -15049,6 +15321,7 @@
       <c r="R241" t="n">
         <v>1</v>
       </c>
+      <c r="S241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -15109,6 +15382,7 @@
       <c r="R242" t="n">
         <v>1</v>
       </c>
+      <c r="S242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -15167,6 +15441,7 @@
       <c r="R243" t="n">
         <v>1</v>
       </c>
+      <c r="S243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -15227,6 +15502,7 @@
       <c r="R244" t="n">
         <v>1</v>
       </c>
+      <c r="S244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -15285,6 +15561,7 @@
       <c r="R245" t="n">
         <v>1</v>
       </c>
+      <c r="S245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -15347,6 +15624,7 @@
       <c r="R246" t="n">
         <v>1</v>
       </c>
+      <c r="S246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -15405,6 +15683,7 @@
       <c r="R247" t="n">
         <v>1</v>
       </c>
+      <c r="S247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -15463,6 +15742,7 @@
       <c r="R248" t="n">
         <v>1</v>
       </c>
+      <c r="S248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -15521,6 +15801,7 @@
       <c r="R249" t="n">
         <v>1</v>
       </c>
+      <c r="S249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -15581,6 +15862,7 @@
       <c r="R250" t="n">
         <v>1</v>
       </c>
+      <c r="S250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -15643,6 +15925,7 @@
       <c r="R251" t="n">
         <v>1</v>
       </c>
+      <c r="S251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -15706,6 +15989,11 @@
       </c>
       <c r="R252" t="n">
         <v>51.650707278</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>5.061994,51.632998;5.061939,51.63343;5.061809,51.634543;5.061675,51.635654;5.061615,51.636106;5.0616,51.636223;5.061576,51.636349;5.061554,51.636467;5.061481,51.636834;5.06129,51.637651;5.061065,51.638472;5.060885,51.639018;5.06072,51.639515;5.060645,51.639693;5.059764,51.641788;5.059234,51.643177;5.058718,51.644807;5.05856,51.645398;5.058484,51.64568;5.057925,51.64777;5.057617,51.648802;5.057519,51.649109;5.057161,51.650239;5.056994,51.650707</t>
+        </is>
       </c>
     </row>
     <row r="253">
@@ -15765,6 +16053,7 @@
       <c r="R253" t="n">
         <v>1</v>
       </c>
+      <c r="S253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -15823,6 +16112,7 @@
       <c r="R254" t="n">
         <v>1</v>
       </c>
+      <c r="S254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -15885,6 +16175,7 @@
       <c r="R255" t="n">
         <v>1</v>
       </c>
+      <c r="S255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -15947,6 +16238,7 @@
       <c r="R256" t="n">
         <v>1</v>
       </c>
+      <c r="S256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -16009,6 +16301,7 @@
       <c r="R257" t="n">
         <v>1</v>
       </c>
+      <c r="S257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -16071,6 +16364,7 @@
       <c r="R258" t="n">
         <v>1</v>
       </c>
+      <c r="S258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -16129,6 +16423,7 @@
       <c r="R259" t="n">
         <v>1</v>
       </c>
+      <c r="S259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -16189,6 +16484,7 @@
       <c r="R260" t="n">
         <v>1</v>
       </c>
+      <c r="S260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -16251,6 +16547,7 @@
       <c r="R261" t="n">
         <v>1</v>
       </c>
+      <c r="S261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -16313,6 +16610,7 @@
       <c r="R262" t="n">
         <v>1</v>
       </c>
+      <c r="S262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -16371,6 +16669,7 @@
       <c r="R263" t="n">
         <v>1</v>
       </c>
+      <c r="S263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -16429,6 +16728,7 @@
       <c r="R264" t="n">
         <v>1</v>
       </c>
+      <c r="S264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -16491,6 +16791,7 @@
       <c r="R265" t="n">
         <v>1</v>
       </c>
+      <c r="S265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -16551,6 +16852,7 @@
       <c r="R266" t="n">
         <v>1</v>
       </c>
+      <c r="S266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -16613,6 +16915,7 @@
       <c r="R267" t="n">
         <v>1</v>
       </c>
+      <c r="S267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -16677,6 +16980,11 @@
       <c r="R268" t="n">
         <v>51.648133078</v>
       </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>4.615124,51.646792;4.612188,51.646753;4.611285,51.646743;4.610929,51.646754;4.610823,51.646762;4.610529,51.646779;4.610249,51.64681;4.610133,51.646823;4.609947,51.646853;4.608814,51.647026;4.608575,51.647091;4.608319,51.647192;4.608098,51.647334;4.60795,51.647511;4.607773,51.64778;4.60763,51.648024;4.607564,51.648131</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -16739,6 +17047,7 @@
       <c r="R269" t="n">
         <v>1</v>
       </c>
+      <c r="S269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -16799,6 +17108,7 @@
       <c r="R270" t="n">
         <v>1</v>
       </c>
+      <c r="S270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -16859,6 +17169,7 @@
       <c r="R271" t="n">
         <v>1</v>
       </c>
+      <c r="S271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -16917,6 +17228,7 @@
       <c r="R272" t="n">
         <v>1</v>
       </c>
+      <c r="S272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -16975,6 +17287,7 @@
       <c r="R273" t="n">
         <v>1</v>
       </c>
+      <c r="S273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -17037,6 +17350,7 @@
       <c r="R274" t="n">
         <v>1</v>
       </c>
+      <c r="S274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -17099,6 +17413,7 @@
       <c r="R275" t="n">
         <v>1</v>
       </c>
+      <c r="S275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -17161,6 +17476,7 @@
       <c r="R276" t="n">
         <v>1</v>
       </c>
+      <c r="S276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -17223,6 +17539,7 @@
       <c r="R277" t="n">
         <v>1</v>
       </c>
+      <c r="S277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -17285,6 +17602,7 @@
       <c r="R278" t="n">
         <v>1</v>
       </c>
+      <c r="S278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -17347,6 +17665,7 @@
       <c r="R279" t="n">
         <v>1</v>
       </c>
+      <c r="S279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -17409,6 +17728,7 @@
       <c r="R280" t="n">
         <v>1</v>
       </c>
+      <c r="S280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -17471,6 +17791,7 @@
       <c r="R281" t="n">
         <v>1</v>
       </c>
+      <c r="S281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -17529,6 +17850,7 @@
       <c r="R282" t="n">
         <v>1</v>
       </c>
+      <c r="S282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -17591,6 +17913,7 @@
       <c r="R283" t="n">
         <v>1</v>
       </c>
+      <c r="S283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -17653,6 +17976,7 @@
       <c r="R284" t="n">
         <v>1</v>
       </c>
+      <c r="S284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -17715,6 +18039,7 @@
       <c r="R285" t="n">
         <v>1</v>
       </c>
+      <c r="S285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -17775,6 +18100,7 @@
       <c r="R286" t="n">
         <v>1</v>
       </c>
+      <c r="S286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -17835,6 +18161,7 @@
       <c r="R287" t="n">
         <v>1</v>
       </c>
+      <c r="S287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -17897,6 +18224,7 @@
       <c r="R288" t="n">
         <v>1</v>
       </c>
+      <c r="S288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -17957,6 +18285,7 @@
       <c r="R289" t="n">
         <v>1</v>
       </c>
+      <c r="S289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -18017,6 +18346,7 @@
       <c r="R290" t="n">
         <v>1</v>
       </c>
+      <c r="S290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -18077,6 +18407,7 @@
       <c r="R291" t="n">
         <v>1</v>
       </c>
+      <c r="S291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -18137,6 +18468,7 @@
       <c r="R292" t="n">
         <v>1</v>
       </c>
+      <c r="S292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -18197,6 +18529,7 @@
       <c r="R293" t="n">
         <v>1</v>
       </c>
+      <c r="S293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -18257,6 +18590,7 @@
       <c r="R294" t="n">
         <v>1</v>
       </c>
+      <c r="S294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -18317,6 +18651,7 @@
       <c r="R295" t="n">
         <v>1</v>
       </c>
+      <c r="S295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -18381,6 +18716,11 @@
       <c r="R296" t="n">
         <v>51.546212347</v>
       </c>
+      <c r="S296" t="inlineStr">
+        <is>
+          <t>5.661153,51.538235;5.662034,51.538554;5.662685,51.538788;5.663211,51.538993;5.663716,51.539204;5.664683,51.539609;5.664864,51.539653;5.66517,51.539782;5.665305,51.539838;5.665408,51.539913;5.666136,51.540224;5.666554,51.5404;5.666801,51.540499;5.667331,51.5407;5.668931,51.54128;5.669264,51.5414;5.670942,51.542001;5.672283,51.542482;5.672568,51.542591;5.67284,51.542699;5.673098,51.542811;5.673509,51.543015;5.673814,51.543183;5.674139,51.54339;5.674326,51.543524;5.674504,51.543655;5.674695,51.543813;5.675209,51.544271;5.675714,51.544731;5.675847,51.544799;5.675908,51.544846;5.675975,51.544901;5.676079,51.544979;5.67616,51.545019;5.676214,51.545017;5.676265,51.545021;5.676333,51.54504;5.676378,51.545063;5.676409,51.545088;5.676434,51.545126;5.6765,51.545149;5.67657,51.545167;5.676668,51.545185;5.676909,51.545224;5.677261,51.545304;5.677995,51.545374;5.678355,51.545402;5.678795,51.545418;5.679216,51.545424;5.680067,51.545441;5.680966,51.545504;5.684306,51.545769;5.687352,51.546013;5.687941,51.546044;5.688535,51.546038;5.688981,51.546018;5.689051,51.546015;5.689169,51.546013;5.689359,51.545994;5.689451,51.545985;5.68948,51.545964;5.689516,51.545946;5.689556,51.545933;5.6896,51.545925;5.689646,51.545923;5.689691,51.545926;5.689743,51.545937;5.68979,51.545955;5.689823,51.545975;5.689849,51.545998;5.689868,51.546024;5.689877,51.546052;5.689878,51.546081;5.689933,51.546107;5.690084,51.546171;5.690271,51.546214</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -18441,6 +18781,7 @@
       <c r="R297" t="n">
         <v>1</v>
       </c>
+      <c r="S297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -18499,6 +18840,7 @@
       <c r="R298" t="n">
         <v>1</v>
       </c>
+      <c r="S298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -18561,6 +18903,7 @@
       <c r="R299" t="n">
         <v>1</v>
       </c>
+      <c r="S299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -18623,6 +18966,7 @@
       <c r="R300" t="n">
         <v>1</v>
       </c>
+      <c r="S300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -18685,6 +19029,7 @@
       <c r="R301" t="n">
         <v>1</v>
       </c>
+      <c r="S301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -18743,6 +19088,7 @@
       <c r="R302" t="n">
         <v>1</v>
       </c>
+      <c r="S302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -18805,6 +19151,7 @@
       <c r="R303" t="n">
         <v>1</v>
       </c>
+      <c r="S303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -18867,6 +19214,7 @@
       <c r="R304" t="n">
         <v>1</v>
       </c>
+      <c r="S304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -18929,6 +19277,7 @@
       <c r="R305" t="n">
         <v>1</v>
       </c>
+      <c r="S305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -18987,6 +19336,7 @@
       <c r="R306" t="n">
         <v>1</v>
       </c>
+      <c r="S306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -19049,6 +19399,7 @@
       <c r="R307" t="n">
         <v>1</v>
       </c>
+      <c r="S307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -19111,6 +19462,7 @@
       <c r="R308" t="n">
         <v>1</v>
       </c>
+      <c r="S308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -19169,6 +19521,7 @@
       <c r="R309" t="n">
         <v>1</v>
       </c>
+      <c r="S309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -19227,6 +19580,7 @@
       <c r="R310" t="n">
         <v>1</v>
       </c>
+      <c r="S310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -19289,6 +19643,7 @@
       <c r="R311" t="n">
         <v>1</v>
       </c>
+      <c r="S311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -19351,6 +19706,7 @@
       <c r="R312" t="n">
         <v>1</v>
       </c>
+      <c r="S312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -19413,6 +19769,7 @@
       <c r="R313" t="n">
         <v>1</v>
       </c>
+      <c r="S313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -19473,6 +19830,7 @@
       <c r="R314" t="n">
         <v>1</v>
       </c>
+      <c r="S314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -19535,6 +19893,7 @@
       <c r="R315" t="n">
         <v>1</v>
       </c>
+      <c r="S315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -19593,6 +19952,7 @@
       <c r="R316" t="n">
         <v>1</v>
       </c>
+      <c r="S316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -19655,6 +20015,7 @@
       <c r="R317" t="n">
         <v>1</v>
       </c>
+      <c r="S317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -19717,6 +20078,7 @@
       <c r="R318" t="n">
         <v>1</v>
       </c>
+      <c r="S318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -19779,6 +20141,7 @@
       <c r="R319" t="n">
         <v>1</v>
       </c>
+      <c r="S319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -19837,6 +20200,7 @@
       <c r="R320" t="n">
         <v>1</v>
       </c>
+      <c r="S320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -19899,6 +20263,7 @@
       <c r="R321" t="n">
         <v>1</v>
       </c>
+      <c r="S321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -19957,6 +20322,7 @@
       <c r="R322" t="n">
         <v>1</v>
       </c>
+      <c r="S322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -20015,6 +20381,7 @@
       <c r="R323" t="n">
         <v>1</v>
       </c>
+      <c r="S323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -20073,6 +20440,7 @@
       <c r="R324" t="n">
         <v>1</v>
       </c>
+      <c r="S324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -20135,6 +20503,7 @@
       <c r="R325" t="n">
         <v>1</v>
       </c>
+      <c r="S325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -20193,6 +20562,7 @@
       <c r="R326" t="n">
         <v>1</v>
       </c>
+      <c r="S326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -20255,6 +20625,7 @@
       <c r="R327" t="n">
         <v>1</v>
       </c>
+      <c r="S327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -20317,6 +20688,7 @@
       <c r="R328" t="n">
         <v>1</v>
       </c>
+      <c r="S328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -20379,6 +20751,7 @@
       <c r="R329" t="n">
         <v>1</v>
       </c>
+      <c r="S329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -20437,6 +20810,7 @@
       <c r="R330" t="n">
         <v>1</v>
       </c>
+      <c r="S330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -20495,6 +20869,7 @@
       <c r="R331" t="n">
         <v>1</v>
       </c>
+      <c r="S331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -20557,6 +20932,7 @@
       <c r="R332" t="n">
         <v>1</v>
       </c>
+      <c r="S332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -20617,6 +20993,7 @@
       <c r="R333" t="n">
         <v>1</v>
       </c>
+      <c r="S333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -20679,6 +21056,7 @@
       <c r="R334" t="n">
         <v>1</v>
       </c>
+      <c r="S334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -20741,6 +21119,7 @@
       <c r="R335" t="n">
         <v>1</v>
       </c>
+      <c r="S335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -20803,6 +21182,7 @@
       <c r="R336" t="n">
         <v>1</v>
       </c>
+      <c r="S336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -20865,6 +21245,7 @@
       <c r="R337" t="n">
         <v>1</v>
       </c>
+      <c r="S337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -20923,6 +21304,7 @@
       <c r="R338" t="n">
         <v>1</v>
       </c>
+      <c r="S338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -20985,6 +21367,7 @@
       <c r="R339" t="n">
         <v>1</v>
       </c>
+      <c r="S339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -21043,6 +21426,7 @@
       <c r="R340" t="n">
         <v>1</v>
       </c>
+      <c r="S340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -21101,6 +21485,7 @@
       <c r="R341" t="n">
         <v>1</v>
       </c>
+      <c r="S341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -21161,6 +21546,7 @@
       <c r="R342" t="n">
         <v>1</v>
       </c>
+      <c r="S342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -21221,6 +21607,7 @@
       <c r="R343" t="n">
         <v>1</v>
       </c>
+      <c r="S343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -21283,6 +21670,7 @@
       <c r="R344" t="n">
         <v>1</v>
       </c>
+      <c r="S344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -21345,6 +21733,7 @@
       <c r="R345" t="n">
         <v>1</v>
       </c>
+      <c r="S345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -21407,6 +21796,7 @@
       <c r="R346" t="n">
         <v>1</v>
       </c>
+      <c r="S346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -21465,6 +21855,7 @@
       <c r="R347" t="n">
         <v>1</v>
       </c>
+      <c r="S347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -21525,6 +21916,7 @@
       <c r="R348" t="n">
         <v>1</v>
       </c>
+      <c r="S348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -21587,6 +21979,7 @@
       <c r="R349" t="n">
         <v>1</v>
       </c>
+      <c r="S349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -21647,6 +22040,7 @@
       <c r="R350" t="n">
         <v>1</v>
       </c>
+      <c r="S350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -21709,6 +22103,7 @@
       <c r="R351" t="n">
         <v>1</v>
       </c>
+      <c r="S351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -21771,6 +22166,7 @@
       <c r="R352" t="n">
         <v>1</v>
       </c>
+      <c r="S352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -21833,6 +22229,7 @@
       <c r="R353" t="n">
         <v>1</v>
       </c>
+      <c r="S353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -21891,6 +22288,7 @@
       <c r="R354" t="n">
         <v>1</v>
       </c>
+      <c r="S354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -21953,6 +22351,7 @@
       <c r="R355" t="n">
         <v>1</v>
       </c>
+      <c r="S355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -22011,6 +22410,7 @@
       <c r="R356" t="n">
         <v>1</v>
       </c>
+      <c r="S356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -22073,6 +22473,7 @@
       <c r="R357" t="n">
         <v>1</v>
       </c>
+      <c r="S357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -22135,6 +22536,7 @@
       <c r="R358" t="n">
         <v>1</v>
       </c>
+      <c r="S358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -22197,6 +22599,7 @@
       <c r="R359" t="n">
         <v>1</v>
       </c>
+      <c r="S359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -22259,6 +22662,7 @@
       <c r="R360" t="n">
         <v>1</v>
       </c>
+      <c r="S360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -22317,6 +22721,7 @@
       <c r="R361" t="n">
         <v>1</v>
       </c>
+      <c r="S361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -22379,6 +22784,7 @@
       <c r="R362" t="n">
         <v>1</v>
       </c>
+      <c r="S362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -22437,6 +22843,7 @@
       <c r="R363" t="n">
         <v>1</v>
       </c>
+      <c r="S363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -22499,6 +22906,7 @@
       <c r="R364" t="n">
         <v>1</v>
       </c>
+      <c r="S364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -22561,6 +22969,7 @@
       <c r="R365" t="n">
         <v>1</v>
       </c>
+      <c r="S365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -22621,6 +23030,7 @@
       <c r="R366" t="n">
         <v>1</v>
       </c>
+      <c r="S366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -22681,6 +23091,7 @@
       <c r="R367" t="n">
         <v>1</v>
       </c>
+      <c r="S367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -22743,6 +23154,7 @@
       <c r="R368" t="n">
         <v>1</v>
       </c>
+      <c r="S368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -22801,6 +23213,7 @@
       <c r="R369" t="n">
         <v>1</v>
       </c>
+      <c r="S369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -22859,6 +23272,7 @@
       <c r="R370" t="n">
         <v>1</v>
       </c>
+      <c r="S370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -22921,6 +23335,7 @@
       <c r="R371" t="n">
         <v>1</v>
       </c>
+      <c r="S371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -22981,6 +23396,7 @@
       <c r="R372" t="n">
         <v>1</v>
       </c>
+      <c r="S372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -23043,6 +23459,7 @@
       <c r="R373" t="n">
         <v>1</v>
       </c>
+      <c r="S373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -23105,6 +23522,7 @@
       <c r="R374" t="n">
         <v>1</v>
       </c>
+      <c r="S374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -23165,6 +23583,7 @@
       <c r="R375" t="n">
         <v>1</v>
       </c>
+      <c r="S375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -23223,6 +23642,7 @@
       <c r="R376" t="n">
         <v>1</v>
       </c>
+      <c r="S376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -23285,6 +23705,7 @@
       <c r="R377" t="n">
         <v>1</v>
       </c>
+      <c r="S377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -23347,6 +23768,7 @@
       <c r="R378" t="n">
         <v>1</v>
       </c>
+      <c r="S378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -23405,6 +23827,7 @@
       <c r="R379" t="n">
         <v>1</v>
       </c>
+      <c r="S379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -23465,6 +23888,7 @@
       <c r="R380" t="n">
         <v>1</v>
       </c>
+      <c r="S380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -23527,6 +23951,7 @@
       <c r="R381" t="n">
         <v>1</v>
       </c>
+      <c r="S381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -23587,6 +24012,7 @@
       <c r="R382" t="n">
         <v>1</v>
       </c>
+      <c r="S382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -23649,6 +24075,7 @@
       <c r="R383" t="n">
         <v>1</v>
       </c>
+      <c r="S383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -23707,6 +24134,7 @@
       <c r="R384" t="n">
         <v>1</v>
       </c>
+      <c r="S384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -23765,6 +24193,7 @@
       <c r="R385" t="n">
         <v>1</v>
       </c>
+      <c r="S385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -23823,6 +24252,7 @@
       <c r="R386" t="n">
         <v>1</v>
       </c>
+      <c r="S386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -23885,6 +24315,7 @@
       <c r="R387" t="n">
         <v>1</v>
       </c>
+      <c r="S387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -23945,6 +24376,7 @@
       <c r="R388" t="n">
         <v>1</v>
       </c>
+      <c r="S388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -24007,6 +24439,7 @@
       <c r="R389" t="n">
         <v>1</v>
       </c>
+      <c r="S389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -24067,6 +24500,7 @@
       <c r="R390" t="n">
         <v>1</v>
       </c>
+      <c r="S390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -24125,6 +24559,7 @@
       <c r="R391" t="n">
         <v>1</v>
       </c>
+      <c r="S391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -24183,6 +24618,7 @@
       <c r="R392" t="n">
         <v>1</v>
       </c>
+      <c r="S392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -24245,6 +24681,7 @@
       <c r="R393" t="n">
         <v>1</v>
       </c>
+      <c r="S393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -24307,6 +24744,7 @@
       <c r="R394" t="n">
         <v>1</v>
       </c>
+      <c r="S394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -24367,6 +24805,7 @@
       <c r="R395" t="n">
         <v>1</v>
       </c>
+      <c r="S395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -24429,6 +24868,7 @@
       <c r="R396" t="n">
         <v>1</v>
       </c>
+      <c r="S396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -24489,6 +24929,7 @@
       <c r="R397" t="n">
         <v>1</v>
       </c>
+      <c r="S397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -24549,6 +24990,7 @@
       <c r="R398" t="n">
         <v>1</v>
       </c>
+      <c r="S398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -24609,6 +25051,7 @@
       <c r="R399" t="n">
         <v>1</v>
       </c>
+      <c r="S399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -24671,6 +25114,7 @@
       <c r="R400" t="n">
         <v>1</v>
       </c>
+      <c r="S400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -24729,6 +25173,7 @@
       <c r="R401" t="n">
         <v>1</v>
       </c>
+      <c r="S401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -24791,6 +25236,7 @@
       <c r="R402" t="n">
         <v>1</v>
       </c>
+      <c r="S402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -24849,6 +25295,7 @@
       <c r="R403" t="n">
         <v>1</v>
       </c>
+      <c r="S403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -24911,6 +25358,7 @@
       <c r="R404" t="n">
         <v>1</v>
       </c>
+      <c r="S404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -24969,6 +25417,7 @@
       <c r="R405" t="n">
         <v>1</v>
       </c>
+      <c r="S405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -25031,6 +25480,7 @@
       <c r="R406" t="n">
         <v>1</v>
       </c>
+      <c r="S406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -25089,6 +25539,7 @@
       <c r="R407" t="n">
         <v>1</v>
       </c>
+      <c r="S407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -25151,6 +25602,7 @@
       <c r="R408" t="n">
         <v>1</v>
       </c>
+      <c r="S408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -25214,6 +25666,11 @@
       </c>
       <c r="R409" t="n">
         <v>51.693510921</v>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>5.892818,51.691953;5.893359,51.69194;5.893822,51.691922;5.89389,51.691918;5.893935,51.691916;5.89535,51.69186;5.89583,51.69186;5.89614,51.69188;5.89739,51.69203;5.89862,51.692208;5.89919,51.69229;5.89949,51.69233;5.90052,51.69248;5.905069,51.693138;5.905453,51.693191;5.909582,51.693775;5.90978,51.693798;5.909991,51.693821;5.910136,51.693834;5.910294,51.693843;5.910798,51.693868;5.912391,51.693921;5.913513,51.693955;5.914964,51.693989;5.916434,51.694011;5.916678,51.694015;5.916921,51.694018;5.917185,51.694014;5.917453,51.694003;5.917675,51.693987;5.91794,51.69396;5.918076,51.693943;5.918215,51.693923;5.918425,51.693889;5.918647,51.693844;5.918995,51.693769;5.919479,51.693658;5.919762,51.693608;5.920041,51.693569;5.920168,51.693555;5.920293,51.693546;5.920551,51.693528;5.920747,51.693523;5.920941,51.693523;5.92113,51.693528;5.921329,51.693538;5.921465,51.693548;5.923463,51.693731;5.925395,51.693914;5.925632,51.693945;5.925863,51.693985;5.92597,51.694011;5.926082,51.694041;5.927575,51.694533;5.927969,51.694672;5.928669,51.694963;5.92887,51.695029;5.928975,51.695059;5.929085,51.695084;5.929202,51.695105;5.929319,51.695119;5.931081,51.695221;5.931487,51.695255;5.931893,51.695298;5.93198,51.695309;5.932024,51.695315;5.932293,51.69535;5.932457,51.695353;5.932669,51.69539;5.932854,51.695436;5.933495,51.695607;5.933607,51.695636;5.933725,51.695653;5.933873,51.695657;5.933919,51.695625;5.933981,51.695601;5.934045,51.69559;5.934116,51.69559;5.93419,51.695605;5.934247,51.695629;5.934291,51.695662;5.934433,51.695653;5.934605,51.695614;5.934881,51.695547;5.935138,51.695453;5.935202,51.695441;5.935458,51.695315;5.935883,51.695127;5.936121,51.695042;5.936452,51.694932;5.93679,51.694825;5.936999,51.694757;5.937201,51.694684;5.93758,51.69453;5.937803,51.69443;5.938259,51.694208;5.938603,51.694028;5.938679,51.693978;5.938751,51.693926;5.938837,51.693845;5.938957,51.693735;5.938997,51.693651;5.93905,51.693605;5.939135,51.693543;5.939192,51.69351</t>
+        </is>
       </c>
     </row>
     <row r="410">
@@ -25273,6 +25730,7 @@
       <c r="R410" t="n">
         <v>1</v>
       </c>
+      <c r="S410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -25333,6 +25791,7 @@
       <c r="R411" t="n">
         <v>1</v>
       </c>
+      <c r="S411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -25391,6 +25850,7 @@
       <c r="R412" t="n">
         <v>1</v>
       </c>
+      <c r="S412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -25453,6 +25913,7 @@
       <c r="R413" t="n">
         <v>1</v>
       </c>
+      <c r="S413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -25513,6 +25974,7 @@
       <c r="R414" t="n">
         <v>1</v>
       </c>
+      <c r="S414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -25575,6 +26037,7 @@
       <c r="R415" t="n">
         <v>1</v>
       </c>
+      <c r="S415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -25635,6 +26098,7 @@
       <c r="R416" t="n">
         <v>1</v>
       </c>
+      <c r="S416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -25697,6 +26161,7 @@
       <c r="R417" t="n">
         <v>1</v>
       </c>
+      <c r="S417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -25759,6 +26224,7 @@
       <c r="R418" t="n">
         <v>1</v>
       </c>
+      <c r="S418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -25819,6 +26285,7 @@
       <c r="R419" t="n">
         <v>1</v>
       </c>
+      <c r="S419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -25877,6 +26344,7 @@
       <c r="R420" t="n">
         <v>1</v>
       </c>
+      <c r="S420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -25935,6 +26403,7 @@
       <c r="R421" t="n">
         <v>1</v>
       </c>
+      <c r="S421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -25997,6 +26466,7 @@
       <c r="R422" t="n">
         <v>1</v>
       </c>
+      <c r="S422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -26055,6 +26525,7 @@
       <c r="R423" t="n">
         <v>1</v>
       </c>
+      <c r="S423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -26117,6 +26588,7 @@
       <c r="R424" t="n">
         <v>1</v>
       </c>
+      <c r="S424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -26177,6 +26649,7 @@
       <c r="R425" t="n">
         <v>1</v>
       </c>
+      <c r="S425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -26237,6 +26710,7 @@
       <c r="R426" t="n">
         <v>1</v>
       </c>
+      <c r="S426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -26295,6 +26769,7 @@
       <c r="R427" t="n">
         <v>1</v>
       </c>
+      <c r="S427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -26353,6 +26828,7 @@
       <c r="R428" t="n">
         <v>1</v>
       </c>
+      <c r="S428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -26411,6 +26887,7 @@
       <c r="R429" t="n">
         <v>1</v>
       </c>
+      <c r="S429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -26473,6 +26950,7 @@
       <c r="R430" t="n">
         <v>1</v>
       </c>
+      <c r="S430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -26531,6 +27009,7 @@
       <c r="R431" t="n">
         <v>1</v>
       </c>
+      <c r="S431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -26593,6 +27072,7 @@
       <c r="R432" t="n">
         <v>1</v>
       </c>
+      <c r="S432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -26655,6 +27135,7 @@
       <c r="R433" t="n">
         <v>1</v>
       </c>
+      <c r="S433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -26717,6 +27198,7 @@
       <c r="R434" t="n">
         <v>1</v>
       </c>
+      <c r="S434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -26779,6 +27261,7 @@
       <c r="R435" t="n">
         <v>1</v>
       </c>
+      <c r="S435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -26841,6 +27324,7 @@
       <c r="R436" t="n">
         <v>1</v>
       </c>
+      <c r="S436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -26903,6 +27387,7 @@
       <c r="R437" t="n">
         <v>1</v>
       </c>
+      <c r="S437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -26963,6 +27448,7 @@
       <c r="R438" t="n">
         <v>1</v>
       </c>
+      <c r="S438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -27023,6 +27509,7 @@
       <c r="R439" t="n">
         <v>1</v>
       </c>
+      <c r="S439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -27085,6 +27572,7 @@
       <c r="R440" t="n">
         <v>1</v>
       </c>
+      <c r="S440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -27147,6 +27635,7 @@
       <c r="R441" t="n">
         <v>1</v>
       </c>
+      <c r="S441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -27205,6 +27694,7 @@
       <c r="R442" t="n">
         <v>1</v>
       </c>
+      <c r="S442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -27267,6 +27757,7 @@
       <c r="R443" t="n">
         <v>1</v>
       </c>
+      <c r="S443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -27327,6 +27818,7 @@
       <c r="R444" t="n">
         <v>1</v>
       </c>
+      <c r="S444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -27389,6 +27881,7 @@
       <c r="R445" t="n">
         <v>1</v>
       </c>
+      <c r="S445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -27451,6 +27944,7 @@
       <c r="R446" t="n">
         <v>1</v>
       </c>
+      <c r="S446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -27511,6 +28005,7 @@
       <c r="R447" t="n">
         <v>1</v>
       </c>
+      <c r="S447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -27573,6 +28068,7 @@
       <c r="R448" t="n">
         <v>1</v>
       </c>
+      <c r="S448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -27635,6 +28131,7 @@
       <c r="R449" t="n">
         <v>1</v>
       </c>
+      <c r="S449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -27697,6 +28194,7 @@
       <c r="R450" t="n">
         <v>1</v>
       </c>
+      <c r="S450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -27755,6 +28253,7 @@
       <c r="R451" t="n">
         <v>1</v>
       </c>
+      <c r="S451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -27817,6 +28316,7 @@
       <c r="R452" t="n">
         <v>1</v>
       </c>
+      <c r="S452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -27879,6 +28379,7 @@
       <c r="R453" t="n">
         <v>1</v>
       </c>
+      <c r="S453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -27941,6 +28442,7 @@
       <c r="R454" t="n">
         <v>1</v>
       </c>
+      <c r="S454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -27999,6 +28501,7 @@
       <c r="R455" t="n">
         <v>1</v>
       </c>
+      <c r="S455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -28059,6 +28562,7 @@
       <c r="R456" t="n">
         <v>1</v>
       </c>
+      <c r="S456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -28119,6 +28623,7 @@
       <c r="R457" t="n">
         <v>1</v>
       </c>
+      <c r="S457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -28181,6 +28686,7 @@
       <c r="R458" t="n">
         <v>1</v>
       </c>
+      <c r="S458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -28243,6 +28749,7 @@
       <c r="R459" t="n">
         <v>1</v>
       </c>
+      <c r="S459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -28305,6 +28812,7 @@
       <c r="R460" t="n">
         <v>1</v>
       </c>
+      <c r="S460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -28367,6 +28875,7 @@
       <c r="R461" t="n">
         <v>1</v>
       </c>
+      <c r="S461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -28429,6 +28938,7 @@
       <c r="R462" t="n">
         <v>1</v>
       </c>
+      <c r="S462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -28491,6 +29001,7 @@
       <c r="R463" t="n">
         <v>1</v>
       </c>
+      <c r="S463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -28551,6 +29062,7 @@
       <c r="R464" t="n">
         <v>1</v>
       </c>
+      <c r="S464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -28613,6 +29125,7 @@
       <c r="R465" t="n">
         <v>1</v>
       </c>
+      <c r="S465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -28675,6 +29188,7 @@
       <c r="R466" t="n">
         <v>1</v>
       </c>
+      <c r="S466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -28733,6 +29247,7 @@
       <c r="R467" t="n">
         <v>1</v>
       </c>
+      <c r="S467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -28795,6 +29310,7 @@
       <c r="R468" t="n">
         <v>1</v>
       </c>
+      <c r="S468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -28857,6 +29373,7 @@
       <c r="R469" t="n">
         <v>1</v>
       </c>
+      <c r="S469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -28919,6 +29436,7 @@
       <c r="R470" t="n">
         <v>1</v>
       </c>
+      <c r="S470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -28981,6 +29499,7 @@
       <c r="R471" t="n">
         <v>1</v>
       </c>
+      <c r="S471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -29039,6 +29558,7 @@
       <c r="R472" t="n">
         <v>1</v>
       </c>
+      <c r="S472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -29101,6 +29621,7 @@
       <c r="R473" t="n">
         <v>1</v>
       </c>
+      <c r="S473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -29159,6 +29680,7 @@
       <c r="R474" t="n">
         <v>1</v>
       </c>
+      <c r="S474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -29219,6 +29741,7 @@
       <c r="R475" t="n">
         <v>1</v>
       </c>
+      <c r="S475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -29277,6 +29800,7 @@
       <c r="R476" t="n">
         <v>1</v>
       </c>
+      <c r="S476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -29335,6 +29859,7 @@
       <c r="R477" t="n">
         <v>1</v>
       </c>
+      <c r="S477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -29397,6 +29922,7 @@
       <c r="R478" t="n">
         <v>1</v>
       </c>
+      <c r="S478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -29459,6 +29985,7 @@
       <c r="R479" t="n">
         <v>1</v>
       </c>
+      <c r="S479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -29521,6 +30048,7 @@
       <c r="R480" t="n">
         <v>1</v>
       </c>
+      <c r="S480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -29581,6 +30109,7 @@
       <c r="R481" t="n">
         <v>1</v>
       </c>
+      <c r="S481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -29639,6 +30168,7 @@
       <c r="R482" t="n">
         <v>1</v>
       </c>
+      <c r="S482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -29701,6 +30231,7 @@
       <c r="R483" t="n">
         <v>1</v>
       </c>
+      <c r="S483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -29759,6 +30290,7 @@
       <c r="R484" t="n">
         <v>1</v>
       </c>
+      <c r="S484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -29821,6 +30353,7 @@
       <c r="R485" t="n">
         <v>1</v>
       </c>
+      <c r="S485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -29879,6 +30412,7 @@
       <c r="R486" t="n">
         <v>1</v>
       </c>
+      <c r="S486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -29941,6 +30475,7 @@
       <c r="R487" t="n">
         <v>1</v>
       </c>
+      <c r="S487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -30003,6 +30538,7 @@
       <c r="R488" t="n">
         <v>1</v>
       </c>
+      <c r="S488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -30061,6 +30597,7 @@
       <c r="R489" t="n">
         <v>1</v>
       </c>
+      <c r="S489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -30123,6 +30660,7 @@
       <c r="R490" t="n">
         <v>1</v>
       </c>
+      <c r="S490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -30185,6 +30723,7 @@
       <c r="R491" t="n">
         <v>1</v>
       </c>
+      <c r="S491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -30247,6 +30786,7 @@
       <c r="R492" t="n">
         <v>1</v>
       </c>
+      <c r="S492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -30305,6 +30845,7 @@
       <c r="R493" t="n">
         <v>1</v>
       </c>
+      <c r="S493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -30363,6 +30904,7 @@
       <c r="R494" t="n">
         <v>1</v>
       </c>
+      <c r="S494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -30421,6 +30963,7 @@
       <c r="R495" t="n">
         <v>1</v>
       </c>
+      <c r="S495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -30479,6 +31022,7 @@
       <c r="R496" t="n">
         <v>1</v>
       </c>
+      <c r="S496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -30541,6 +31085,7 @@
       <c r="R497" t="n">
         <v>1</v>
       </c>
+      <c r="S497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -30603,6 +31148,7 @@
       <c r="R498" t="n">
         <v>1</v>
       </c>
+      <c r="S498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -30663,6 +31209,7 @@
       <c r="R499" t="n">
         <v>1</v>
       </c>
+      <c r="S499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -30723,6 +31270,7 @@
       <c r="R500" t="n">
         <v>1</v>
       </c>
+      <c r="S500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -30785,6 +31333,7 @@
       <c r="R501" t="n">
         <v>1</v>
       </c>
+      <c r="S501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -30847,6 +31396,7 @@
       <c r="R502" t="n">
         <v>1</v>
       </c>
+      <c r="S502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -30909,6 +31459,7 @@
       <c r="R503" t="n">
         <v>1</v>
       </c>
+      <c r="S503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -30971,6 +31522,7 @@
       <c r="R504" t="n">
         <v>1</v>
       </c>
+      <c r="S504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -31031,6 +31583,7 @@
       <c r="R505" t="n">
         <v>1</v>
       </c>
+      <c r="S505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -31089,6 +31642,7 @@
       <c r="R506" t="n">
         <v>1</v>
       </c>
+      <c r="S506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -31151,6 +31705,7 @@
       <c r="R507" t="n">
         <v>1</v>
       </c>
+      <c r="S507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -31209,6 +31764,7 @@
       <c r="R508" t="n">
         <v>1</v>
       </c>
+      <c r="S508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -31267,6 +31823,7 @@
       <c r="R509" t="n">
         <v>1</v>
       </c>
+      <c r="S509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -31325,6 +31882,7 @@
       <c r="R510" t="n">
         <v>1</v>
       </c>
+      <c r="S510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -31387,6 +31945,7 @@
       <c r="R511" t="n">
         <v>1</v>
       </c>
+      <c r="S511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -31447,6 +32006,7 @@
       <c r="R512" t="n">
         <v>1</v>
       </c>
+      <c r="S512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -31505,6 +32065,7 @@
       <c r="R513" t="n">
         <v>1</v>
       </c>
+      <c r="S513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -31565,6 +32126,7 @@
       <c r="R514" t="n">
         <v>1</v>
       </c>
+      <c r="S514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -31623,6 +32185,7 @@
       <c r="R515" t="n">
         <v>1</v>
       </c>
+      <c r="S515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -31685,6 +32248,7 @@
       <c r="R516" t="n">
         <v>1</v>
       </c>
+      <c r="S516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -31743,6 +32307,7 @@
       <c r="R517" t="n">
         <v>1</v>
       </c>
+      <c r="S517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -31805,6 +32370,7 @@
       <c r="R518" t="n">
         <v>1</v>
       </c>
+      <c r="S518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -31863,6 +32429,7 @@
       <c r="R519" t="n">
         <v>1</v>
       </c>
+      <c r="S519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -31923,6 +32490,7 @@
       <c r="R520" t="n">
         <v>1</v>
       </c>
+      <c r="S520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -31981,6 +32549,7 @@
       <c r="R521" t="n">
         <v>1</v>
       </c>
+      <c r="S521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -32039,6 +32608,7 @@
       <c r="R522" t="n">
         <v>1</v>
       </c>
+      <c r="S522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -32101,6 +32671,7 @@
       <c r="R523" t="n">
         <v>1</v>
       </c>
+      <c r="S523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -32161,6 +32732,7 @@
       <c r="R524" t="n">
         <v>1</v>
       </c>
+      <c r="S524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -32223,6 +32795,7 @@
       <c r="R525" t="n">
         <v>1</v>
       </c>
+      <c r="S525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -32285,6 +32858,7 @@
       <c r="R526" t="n">
         <v>1</v>
       </c>
+      <c r="S526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -32347,6 +32921,7 @@
       <c r="R527" t="n">
         <v>1</v>
       </c>
+      <c r="S527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -32407,6 +32982,7 @@
       <c r="R528" t="n">
         <v>1</v>
       </c>
+      <c r="S528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -32465,6 +33041,7 @@
       <c r="R529" t="n">
         <v>1</v>
       </c>
+      <c r="S529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -32523,6 +33100,7 @@
       <c r="R530" t="n">
         <v>1</v>
       </c>
+      <c r="S530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -32585,6 +33163,7 @@
       <c r="R531" t="n">
         <v>1</v>
       </c>
+      <c r="S531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -32647,6 +33226,7 @@
       <c r="R532" t="n">
         <v>1</v>
       </c>
+      <c r="S532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -32709,6 +33289,7 @@
       <c r="R533" t="n">
         <v>1</v>
       </c>
+      <c r="S533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -32767,6 +33348,7 @@
       <c r="R534" t="n">
         <v>1</v>
       </c>
+      <c r="S534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -32829,6 +33411,7 @@
       <c r="R535" t="n">
         <v>1</v>
       </c>
+      <c r="S535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -32887,6 +33470,7 @@
       <c r="R536" t="n">
         <v>1</v>
       </c>
+      <c r="S536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -32949,6 +33533,7 @@
       <c r="R537" t="n">
         <v>1</v>
       </c>
+      <c r="S537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -33011,6 +33596,7 @@
       <c r="R538" t="n">
         <v>1</v>
       </c>
+      <c r="S538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -33071,6 +33657,7 @@
       <c r="R539" t="n">
         <v>1</v>
       </c>
+      <c r="S539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -33131,6 +33718,7 @@
       <c r="R540" t="n">
         <v>1</v>
       </c>
+      <c r="S540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -33193,6 +33781,7 @@
       <c r="R541" t="n">
         <v>1</v>
       </c>
+      <c r="S541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -33253,6 +33842,7 @@
       <c r="R542" t="n">
         <v>1</v>
       </c>
+      <c r="S542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -33313,6 +33903,7 @@
       <c r="R543" t="n">
         <v>1</v>
       </c>
+      <c r="S543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -33375,6 +33966,7 @@
       <c r="R544" t="n">
         <v>1</v>
       </c>
+      <c r="S544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -33435,6 +34027,11 @@
       <c r="R545" t="n">
         <v>51.442499508</v>
       </c>
+      <c r="S545" t="inlineStr">
+        <is>
+          <t>5.727969,51.446462;5.729738,51.444357;5.729776,51.444312;5.73052,51.44345;5.73129,51.44253;5.731327,51.442488</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -33497,6 +34094,7 @@
       <c r="R546" t="n">
         <v>1</v>
       </c>
+      <c r="S546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -33555,6 +34153,7 @@
       <c r="R547" t="n">
         <v>1</v>
       </c>
+      <c r="S547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -33613,6 +34212,7 @@
       <c r="R548" t="n">
         <v>1</v>
       </c>
+      <c r="S548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -33675,6 +34275,7 @@
       <c r="R549" t="n">
         <v>1</v>
       </c>
+      <c r="S549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -33733,6 +34334,7 @@
       <c r="R550" t="n">
         <v>1</v>
       </c>
+      <c r="S550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -33795,6 +34397,7 @@
       <c r="R551" t="n">
         <v>1</v>
       </c>
+      <c r="S551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -33857,6 +34460,7 @@
       <c r="R552" t="n">
         <v>1</v>
       </c>
+      <c r="S552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -33915,6 +34519,7 @@
       <c r="R553" t="n">
         <v>1</v>
       </c>
+      <c r="S553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -33977,6 +34582,7 @@
       <c r="R554" t="n">
         <v>1</v>
       </c>
+      <c r="S554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -34035,6 +34641,7 @@
       <c r="R555" t="n">
         <v>1</v>
       </c>
+      <c r="S555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -34097,6 +34704,7 @@
       <c r="R556" t="n">
         <v>1</v>
       </c>
+      <c r="S556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -34157,6 +34765,7 @@
       <c r="R557" t="n">
         <v>1</v>
       </c>
+      <c r="S557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -34219,6 +34828,7 @@
       <c r="R558" t="n">
         <v>1</v>
       </c>
+      <c r="S558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -34281,6 +34891,7 @@
       <c r="R559" t="n">
         <v>1</v>
       </c>
+      <c r="S559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -34341,6 +34952,7 @@
       <c r="R560" t="n">
         <v>1</v>
       </c>
+      <c r="S560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -34401,6 +35013,7 @@
       <c r="R561" t="n">
         <v>1</v>
       </c>
+      <c r="S561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -34461,6 +35074,7 @@
       <c r="R562" t="n">
         <v>1</v>
       </c>
+      <c r="S562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -34519,6 +35133,7 @@
       <c r="R563" t="n">
         <v>1</v>
       </c>
+      <c r="S563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -34577,6 +35192,7 @@
       <c r="R564" t="n">
         <v>1</v>
       </c>
+      <c r="S564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -34635,6 +35251,7 @@
       <c r="R565" t="n">
         <v>1</v>
       </c>
+      <c r="S565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -34695,6 +35312,7 @@
       <c r="R566" t="n">
         <v>1</v>
       </c>
+      <c r="S566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -34753,6 +35371,7 @@
       <c r="R567" t="n">
         <v>1</v>
       </c>
+      <c r="S567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -34813,6 +35432,7 @@
       <c r="R568" t="n">
         <v>1</v>
       </c>
+      <c r="S568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -34873,6 +35493,7 @@
       <c r="R569" t="n">
         <v>1</v>
       </c>
+      <c r="S569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -34933,6 +35554,7 @@
       <c r="R570" t="n">
         <v>1</v>
       </c>
+      <c r="S570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -34991,6 +35613,7 @@
       <c r="R571" t="n">
         <v>1</v>
       </c>
+      <c r="S571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -35049,6 +35672,7 @@
       <c r="R572" t="n">
         <v>1</v>
       </c>
+      <c r="S572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -35107,6 +35731,7 @@
       <c r="R573" t="n">
         <v>1</v>
       </c>
+      <c r="S573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -35169,6 +35794,7 @@
       <c r="R574" t="n">
         <v>1</v>
       </c>
+      <c r="S574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -35227,6 +35853,7 @@
       <c r="R575" t="n">
         <v>1</v>
       </c>
+      <c r="S575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -35289,6 +35916,7 @@
       <c r="R576" t="n">
         <v>1</v>
       </c>
+      <c r="S576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -35351,6 +35979,7 @@
       <c r="R577" t="n">
         <v>1</v>
       </c>
+      <c r="S577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -35413,6 +36042,7 @@
       <c r="R578" t="n">
         <v>1</v>
       </c>
+      <c r="S578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -35475,6 +36105,7 @@
       <c r="R579" t="n">
         <v>1</v>
       </c>
+      <c r="S579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -35537,6 +36168,7 @@
       <c r="R580" t="n">
         <v>1</v>
       </c>
+      <c r="S580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -35597,6 +36229,7 @@
       <c r="R581" t="n">
         <v>1</v>
       </c>
+      <c r="S581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -35657,6 +36290,7 @@
       <c r="R582" t="n">
         <v>1</v>
       </c>
+      <c r="S582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -35719,6 +36353,7 @@
       <c r="R583" t="n">
         <v>1</v>
       </c>
+      <c r="S583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -35781,6 +36416,7 @@
       <c r="R584" t="n">
         <v>1</v>
       </c>
+      <c r="S584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -35843,6 +36479,7 @@
       <c r="R585" t="n">
         <v>1</v>
       </c>
+      <c r="S585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -35901,6 +36538,7 @@
       <c r="R586" t="n">
         <v>1</v>
       </c>
+      <c r="S586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -35961,6 +36599,7 @@
       <c r="R587" t="n">
         <v>1</v>
       </c>
+      <c r="S587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -36021,6 +36660,7 @@
       <c r="R588" t="n">
         <v>1</v>
       </c>
+      <c r="S588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -36081,6 +36721,7 @@
       <c r="R589" t="n">
         <v>1</v>
       </c>
+      <c r="S589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -36139,6 +36780,7 @@
       <c r="R590" t="n">
         <v>1</v>
       </c>
+      <c r="S590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -36199,6 +36841,7 @@
       <c r="R591" t="n">
         <v>1</v>
       </c>
+      <c r="S591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -36259,6 +36902,7 @@
       <c r="R592" t="n">
         <v>1</v>
       </c>
+      <c r="S592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -36321,6 +36965,7 @@
       <c r="R593" t="n">
         <v>1</v>
       </c>
+      <c r="S593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -36383,6 +37028,7 @@
       <c r="R594" t="n">
         <v>1</v>
       </c>
+      <c r="S594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -36443,6 +37089,7 @@
       <c r="R595" t="n">
         <v>1</v>
       </c>
+      <c r="S595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -36503,6 +37150,7 @@
       <c r="R596" t="n">
         <v>1</v>
       </c>
+      <c r="S596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -36563,6 +37211,7 @@
       <c r="R597" t="n">
         <v>1</v>
       </c>
+      <c r="S597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -36621,6 +37270,7 @@
       <c r="R598" t="n">
         <v>1</v>
       </c>
+      <c r="S598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -36679,6 +37329,7 @@
       <c r="R599" t="n">
         <v>1</v>
       </c>
+      <c r="S599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -36741,6 +37392,7 @@
       <c r="R600" t="n">
         <v>1</v>
       </c>
+      <c r="S600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -36803,6 +37455,7 @@
       <c r="R601" t="n">
         <v>1</v>
       </c>
+      <c r="S601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -36861,6 +37514,7 @@
       <c r="R602" t="n">
         <v>1</v>
       </c>
+      <c r="S602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -36921,6 +37575,7 @@
       <c r="R603" t="n">
         <v>1</v>
       </c>
+      <c r="S603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -36981,6 +37636,7 @@
       <c r="R604" t="n">
         <v>1</v>
       </c>
+      <c r="S604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -37039,6 +37695,7 @@
       <c r="R605" t="n">
         <v>1</v>
       </c>
+      <c r="S605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -37099,6 +37756,7 @@
       <c r="R606" t="n">
         <v>1</v>
       </c>
+      <c r="S606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -37157,6 +37815,7 @@
       <c r="R607" t="n">
         <v>1</v>
       </c>
+      <c r="S607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -37219,6 +37878,7 @@
       <c r="R608" t="n">
         <v>1</v>
       </c>
+      <c r="S608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -37281,6 +37941,7 @@
       <c r="R609" t="n">
         <v>1</v>
       </c>
+      <c r="S609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -37341,6 +38002,7 @@
       <c r="R610" t="n">
         <v>1</v>
       </c>
+      <c r="S610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -37401,6 +38063,7 @@
       <c r="R611" t="n">
         <v>1</v>
       </c>
+      <c r="S611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -37463,6 +38126,7 @@
       <c r="R612" t="n">
         <v>1</v>
       </c>
+      <c r="S612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -37525,6 +38189,7 @@
       <c r="R613" t="n">
         <v>1</v>
       </c>
+      <c r="S613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -37587,6 +38252,7 @@
       <c r="R614" t="n">
         <v>1</v>
       </c>
+      <c r="S614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -37649,6 +38315,7 @@
       <c r="R615" t="n">
         <v>1</v>
       </c>
+      <c r="S615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -37709,6 +38376,7 @@
       <c r="R616" t="n">
         <v>1</v>
       </c>
+      <c r="S616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -37772,6 +38440,11 @@
       </c>
       <c r="R617" t="n">
         <v>51.619317169</v>
+      </c>
+      <c r="S617" t="inlineStr">
+        <is>
+          <t>5.50324,51.623967;5.503479,51.623833;5.503756,51.623685;5.504324,51.623418;5.504521,51.623325;5.504897,51.623147;5.50628,51.622423;5.507051,51.622012;5.507665,51.621692;5.508041,51.621484;5.508836,51.621057;5.5097,51.620587;5.511754,51.61947;5.512053,51.619307</t>
+        </is>
       </c>
     </row>
     <row r="618">
@@ -37831,6 +38504,7 @@
       <c r="R618" t="n">
         <v>1</v>
       </c>
+      <c r="S618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -37891,6 +38565,7 @@
       <c r="R619" t="n">
         <v>1</v>
       </c>
+      <c r="S619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -37953,6 +38628,7 @@
       <c r="R620" t="n">
         <v>1</v>
       </c>
+      <c r="S620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -38013,6 +38689,7 @@
       <c r="R621" t="n">
         <v>1</v>
       </c>
+      <c r="S621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -38075,6 +38752,7 @@
       <c r="R622" t="n">
         <v>1</v>
       </c>
+      <c r="S622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -38135,6 +38813,7 @@
       <c r="R623" t="n">
         <v>1</v>
       </c>
+      <c r="S623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -38197,6 +38876,7 @@
       <c r="R624" t="n">
         <v>1</v>
       </c>
+      <c r="S624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -38259,6 +38939,7 @@
       <c r="R625" t="n">
         <v>1</v>
       </c>
+      <c r="S625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -38321,6 +39002,7 @@
       <c r="R626" t="n">
         <v>1</v>
       </c>
+      <c r="S626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -38381,6 +39063,7 @@
       <c r="R627" t="n">
         <v>1</v>
       </c>
+      <c r="S627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -38443,6 +39126,7 @@
       <c r="R628" t="n">
         <v>1</v>
       </c>
+      <c r="S628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -38505,6 +39189,7 @@
       <c r="R629" t="n">
         <v>1</v>
       </c>
+      <c r="S629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -38563,6 +39248,7 @@
       <c r="R630" t="n">
         <v>1</v>
       </c>
+      <c r="S630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -38625,6 +39311,7 @@
       <c r="R631" t="n">
         <v>1</v>
       </c>
+      <c r="S631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -38685,6 +39372,7 @@
       <c r="R632" t="n">
         <v>1</v>
       </c>
+      <c r="S632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -38743,6 +39431,7 @@
       <c r="R633" t="n">
         <v>1</v>
       </c>
+      <c r="S633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -38803,6 +39492,7 @@
       <c r="R634" t="n">
         <v>1</v>
       </c>
+      <c r="S634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -38863,6 +39553,7 @@
       <c r="R635" t="n">
         <v>1</v>
       </c>
+      <c r="S635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -38923,6 +39614,7 @@
       <c r="R636" t="n">
         <v>1</v>
       </c>
+      <c r="S636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -38985,6 +39677,7 @@
       <c r="R637" t="n">
         <v>1</v>
       </c>
+      <c r="S637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -39045,6 +39738,7 @@
       <c r="R638" t="n">
         <v>1</v>
       </c>
+      <c r="S638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -39107,6 +39801,7 @@
       <c r="R639" t="n">
         <v>1</v>
       </c>
+      <c r="S639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -39165,6 +39860,7 @@
       <c r="R640" t="n">
         <v>1</v>
       </c>
+      <c r="S640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -39223,6 +39919,7 @@
       <c r="R641" t="n">
         <v>1</v>
       </c>
+      <c r="S641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -39285,6 +39982,7 @@
       <c r="R642" t="n">
         <v>1</v>
       </c>
+      <c r="S642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -39347,6 +40045,7 @@
       <c r="R643" t="n">
         <v>1</v>
       </c>
+      <c r="S643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -39407,6 +40106,7 @@
       <c r="R644" t="n">
         <v>1</v>
       </c>
+      <c r="S644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -39469,6 +40169,7 @@
       <c r="R645" t="n">
         <v>1</v>
       </c>
+      <c r="S645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -39527,6 +40228,7 @@
       <c r="R646" t="n">
         <v>1</v>
       </c>
+      <c r="S646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -39585,6 +40287,7 @@
       <c r="R647" t="n">
         <v>1</v>
       </c>
+      <c r="S647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -39647,6 +40350,7 @@
       <c r="R648" t="n">
         <v>1</v>
       </c>
+      <c r="S648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -39705,6 +40409,7 @@
       <c r="R649" t="n">
         <v>1</v>
       </c>
+      <c r="S649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -39763,6 +40468,7 @@
       <c r="R650" t="n">
         <v>1</v>
       </c>
+      <c r="S650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -39823,6 +40529,7 @@
       <c r="R651" t="n">
         <v>1</v>
       </c>
+      <c r="S651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -39885,6 +40592,7 @@
       <c r="R652" t="n">
         <v>1</v>
       </c>
+      <c r="S652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -39947,6 +40655,7 @@
       <c r="R653" t="n">
         <v>1</v>
       </c>
+      <c r="S653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -40007,6 +40716,7 @@
       <c r="R654" t="n">
         <v>1</v>
       </c>
+      <c r="S654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -40065,6 +40775,7 @@
       <c r="R655" t="n">
         <v>1</v>
       </c>
+      <c r="S655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -40125,6 +40836,7 @@
       <c r="R656" t="n">
         <v>1</v>
       </c>
+      <c r="S656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -40185,6 +40897,7 @@
       <c r="R657" t="n">
         <v>1</v>
       </c>
+      <c r="S657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -40245,6 +40958,7 @@
       <c r="R658" t="n">
         <v>1</v>
       </c>
+      <c r="S658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -40303,6 +41017,7 @@
       <c r="R659" t="n">
         <v>1</v>
       </c>
+      <c r="S659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -40361,6 +41076,7 @@
       <c r="R660" t="n">
         <v>1</v>
       </c>
+      <c r="S660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -40423,6 +41139,7 @@
       <c r="R661" t="n">
         <v>1</v>
       </c>
+      <c r="S661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -40485,6 +41202,7 @@
       <c r="R662" t="n">
         <v>1</v>
       </c>
+      <c r="S662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -40543,6 +41261,7 @@
       <c r="R663" t="n">
         <v>1</v>
       </c>
+      <c r="S663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -40601,6 +41320,7 @@
       <c r="R664" t="n">
         <v>1</v>
       </c>
+      <c r="S664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -40659,6 +41379,7 @@
       <c r="R665" t="n">
         <v>1</v>
       </c>
+      <c r="S665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -40721,6 +41442,7 @@
       <c r="R666" t="n">
         <v>1</v>
       </c>
+      <c r="S666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -40783,6 +41505,7 @@
       <c r="R667" t="n">
         <v>1</v>
       </c>
+      <c r="S667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -40841,6 +41564,7 @@
       <c r="R668" t="n">
         <v>1</v>
       </c>
+      <c r="S668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -40903,6 +41627,7 @@
       <c r="R669" t="n">
         <v>1</v>
       </c>
+      <c r="S669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -40965,6 +41690,7 @@
       <c r="R670" t="n">
         <v>1</v>
       </c>
+      <c r="S670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -41027,6 +41753,7 @@
       <c r="R671" t="n">
         <v>1</v>
       </c>
+      <c r="S671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -41087,6 +41814,7 @@
       <c r="R672" t="n">
         <v>1</v>
       </c>
+      <c r="S672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -41145,6 +41873,7 @@
       <c r="R673" t="n">
         <v>1</v>
       </c>
+      <c r="S673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -41207,6 +41936,7 @@
       <c r="R674" t="n">
         <v>1</v>
       </c>
+      <c r="S674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -41269,6 +41999,7 @@
       <c r="R675" t="n">
         <v>1</v>
       </c>
+      <c r="S675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -41331,6 +42062,7 @@
       <c r="R676" t="n">
         <v>1</v>
       </c>
+      <c r="S676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -41393,6 +42125,7 @@
       <c r="R677" t="n">
         <v>1</v>
       </c>
+      <c r="S677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -41455,6 +42188,7 @@
       <c r="R678" t="n">
         <v>1</v>
       </c>
+      <c r="S678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -41517,6 +42251,7 @@
       <c r="R679" t="n">
         <v>1</v>
       </c>
+      <c r="S679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -41579,6 +42314,7 @@
       <c r="R680" t="n">
         <v>1</v>
       </c>
+      <c r="S680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -41641,6 +42377,7 @@
       <c r="R681" t="n">
         <v>1</v>
       </c>
+      <c r="S681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -41703,6 +42440,7 @@
       <c r="R682" t="n">
         <v>1</v>
       </c>
+      <c r="S682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -41765,6 +42503,7 @@
       <c r="R683" t="n">
         <v>1</v>
       </c>
+      <c r="S683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -41827,6 +42566,7 @@
       <c r="R684" t="n">
         <v>1</v>
       </c>
+      <c r="S684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -41889,6 +42629,7 @@
       <c r="R685" t="n">
         <v>1</v>
       </c>
+      <c r="S685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -41951,6 +42692,7 @@
       <c r="R686" t="n">
         <v>1</v>
       </c>
+      <c r="S686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -42009,6 +42751,7 @@
       <c r="R687" t="n">
         <v>1</v>
       </c>
+      <c r="S687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -42069,6 +42812,7 @@
       <c r="R688" t="n">
         <v>1</v>
       </c>
+      <c r="S688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -42127,6 +42871,7 @@
       <c r="R689" t="n">
         <v>1</v>
       </c>
+      <c r="S689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -42187,6 +42932,7 @@
       <c r="R690" t="n">
         <v>1</v>
       </c>
+      <c r="S690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -42247,6 +42993,7 @@
       <c r="R691" t="n">
         <v>1</v>
       </c>
+      <c r="S691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -42307,6 +43054,7 @@
       <c r="R692" t="n">
         <v>1</v>
       </c>
+      <c r="S692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -42369,6 +43117,7 @@
       <c r="R693" t="n">
         <v>1</v>
       </c>
+      <c r="S693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -42431,6 +43180,7 @@
       <c r="R694" t="n">
         <v>1</v>
       </c>
+      <c r="S694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -42489,6 +43239,7 @@
       <c r="R695" t="n">
         <v>1</v>
       </c>
+      <c r="S695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -42547,6 +43298,7 @@
       <c r="R696" t="n">
         <v>1</v>
       </c>
+      <c r="S696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -42605,6 +43357,7 @@
       <c r="R697" t="n">
         <v>1</v>
       </c>
+      <c r="S697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -42663,6 +43416,7 @@
       <c r="R698" t="n">
         <v>1</v>
       </c>
+      <c r="S698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -42721,6 +43475,7 @@
       <c r="R699" t="n">
         <v>1</v>
       </c>
+      <c r="S699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -42781,6 +43536,7 @@
       <c r="R700" t="n">
         <v>1</v>
       </c>
+      <c r="S700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -42843,6 +43599,7 @@
       <c r="R701" t="n">
         <v>1</v>
       </c>
+      <c r="S701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -42905,6 +43662,7 @@
       <c r="R702" t="n">
         <v>1</v>
       </c>
+      <c r="S702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -42967,6 +43725,7 @@
       <c r="R703" t="n">
         <v>1</v>
       </c>
+      <c r="S703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -43025,6 +43784,7 @@
       <c r="R704" t="n">
         <v>1</v>
       </c>
+      <c r="S704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -43087,6 +43847,7 @@
       <c r="R705" t="n">
         <v>1</v>
       </c>
+      <c r="S705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -43149,6 +43910,7 @@
       <c r="R706" t="n">
         <v>1</v>
       </c>
+      <c r="S706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -43211,6 +43973,7 @@
       <c r="R707" t="n">
         <v>1</v>
       </c>
+      <c r="S707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -43273,6 +44036,7 @@
       <c r="R708" t="n">
         <v>1</v>
       </c>
+      <c r="S708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -43333,6 +44097,7 @@
       <c r="R709" t="n">
         <v>1</v>
       </c>
+      <c r="S709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -43393,6 +44158,7 @@
       <c r="R710" t="n">
         <v>1</v>
       </c>
+      <c r="S710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -43451,6 +44217,7 @@
       <c r="R711" t="n">
         <v>1</v>
       </c>
+      <c r="S711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -43513,6 +44280,7 @@
       <c r="R712" t="n">
         <v>1</v>
       </c>
+      <c r="S712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -43571,6 +44339,7 @@
       <c r="R713" t="n">
         <v>1</v>
       </c>
+      <c r="S713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -43629,6 +44398,7 @@
       <c r="R714" t="n">
         <v>1</v>
       </c>
+      <c r="S714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -43691,6 +44461,7 @@
       <c r="R715" t="n">
         <v>1</v>
       </c>
+      <c r="S715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -43751,6 +44522,7 @@
       <c r="R716" t="n">
         <v>1</v>
       </c>
+      <c r="S716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -43809,6 +44581,7 @@
       <c r="R717" t="n">
         <v>1</v>
       </c>
+      <c r="S717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -43867,6 +44640,7 @@
       <c r="R718" t="n">
         <v>1</v>
       </c>
+      <c r="S718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -43925,6 +44699,7 @@
       <c r="R719" t="n">
         <v>1</v>
       </c>
+      <c r="S719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -43985,6 +44760,7 @@
       <c r="R720" t="n">
         <v>1</v>
       </c>
+      <c r="S720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -44047,6 +44823,7 @@
       <c r="R721" t="n">
         <v>1</v>
       </c>
+      <c r="S721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -44109,6 +44886,7 @@
       <c r="R722" t="n">
         <v>1</v>
       </c>
+      <c r="S722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -44171,6 +44949,7 @@
       <c r="R723" t="n">
         <v>1</v>
       </c>
+      <c r="S723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -44231,6 +45010,7 @@
       <c r="R724" t="n">
         <v>1</v>
       </c>
+      <c r="S724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -44289,6 +45069,7 @@
       <c r="R725" t="n">
         <v>1</v>
       </c>
+      <c r="S725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -44351,6 +45132,7 @@
       <c r="R726" t="n">
         <v>1</v>
       </c>
+      <c r="S726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -44413,6 +45195,7 @@
       <c r="R727" t="n">
         <v>1</v>
       </c>
+      <c r="S727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -44473,6 +45256,7 @@
       <c r="R728" t="n">
         <v>1</v>
       </c>
+      <c r="S728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -44535,6 +45319,7 @@
       <c r="R729" t="n">
         <v>1</v>
       </c>
+      <c r="S729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -44595,6 +45380,7 @@
       <c r="R730" t="n">
         <v>1</v>
       </c>
+      <c r="S730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -44657,6 +45443,7 @@
       <c r="R731" t="n">
         <v>1</v>
       </c>
+      <c r="S731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -44719,6 +45506,7 @@
       <c r="R732" t="n">
         <v>1</v>
       </c>
+      <c r="S732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -44777,6 +45565,7 @@
       <c r="R733" t="n">
         <v>1</v>
       </c>
+      <c r="S733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -44839,6 +45628,7 @@
       <c r="R734" t="n">
         <v>1</v>
       </c>
+      <c r="S734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -44899,6 +45689,7 @@
       <c r="R735" t="n">
         <v>1</v>
       </c>
+      <c r="S735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -44959,6 +45750,7 @@
       <c r="R736" t="n">
         <v>1</v>
       </c>
+      <c r="S736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -45019,6 +45811,7 @@
       <c r="R737" t="n">
         <v>1</v>
       </c>
+      <c r="S737" t="inlineStr"/>
     </row>
     <row r="738">
       <c r="A738" s="1" t="n">
@@ -45077,6 +45870,7 @@
       <c r="R738" t="n">
         <v>1</v>
       </c>
+      <c r="S738" t="inlineStr"/>
     </row>
     <row r="739">
       <c r="A739" s="1" t="n">
@@ -45137,6 +45931,7 @@
       <c r="R739" t="n">
         <v>1</v>
       </c>
+      <c r="S739" t="inlineStr"/>
     </row>
     <row r="740">
       <c r="A740" s="1" t="n">
@@ -45197,6 +45992,7 @@
       <c r="R740" t="n">
         <v>1</v>
       </c>
+      <c r="S740" t="inlineStr"/>
     </row>
     <row r="741">
       <c r="A741" s="1" t="n">
@@ -45259,6 +46055,7 @@
       <c r="R741" t="n">
         <v>1</v>
       </c>
+      <c r="S741" t="inlineStr"/>
     </row>
     <row r="742">
       <c r="A742" s="1" t="n">
@@ -45321,6 +46118,7 @@
       <c r="R742" t="n">
         <v>1</v>
       </c>
+      <c r="S742" t="inlineStr"/>
     </row>
     <row r="743">
       <c r="A743" s="1" t="n">
@@ -45379,6 +46177,7 @@
       <c r="R743" t="n">
         <v>1</v>
       </c>
+      <c r="S743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -45441,6 +46240,7 @@
       <c r="R744" t="n">
         <v>1</v>
       </c>
+      <c r="S744" t="inlineStr"/>
     </row>
     <row r="745">
       <c r="A745" s="1" t="n">
@@ -45503,6 +46303,7 @@
       <c r="R745" t="n">
         <v>1</v>
       </c>
+      <c r="S745" t="inlineStr"/>
     </row>
     <row r="746">
       <c r="A746" s="1" t="n">
@@ -45565,6 +46366,7 @@
       <c r="R746" t="n">
         <v>1</v>
       </c>
+      <c r="S746" t="inlineStr"/>
     </row>
     <row r="747">
       <c r="A747" s="1" t="n">
@@ -45625,6 +46427,7 @@
       <c r="R747" t="n">
         <v>1</v>
       </c>
+      <c r="S747" t="inlineStr"/>
     </row>
     <row r="748">
       <c r="A748" s="1" t="n">
@@ -45687,6 +46490,7 @@
       <c r="R748" t="n">
         <v>1</v>
       </c>
+      <c r="S748" t="inlineStr"/>
     </row>
     <row r="749">
       <c r="A749" s="1" t="n">
@@ -45747,6 +46551,7 @@
       <c r="R749" t="n">
         <v>1</v>
       </c>
+      <c r="S749" t="inlineStr"/>
     </row>
     <row r="750">
       <c r="A750" s="1" t="n">
@@ -45809,6 +46614,7 @@
       <c r="R750" t="n">
         <v>1</v>
       </c>
+      <c r="S750" t="inlineStr"/>
     </row>
     <row r="751">
       <c r="A751" s="1" t="n">
@@ -45871,6 +46677,7 @@
       <c r="R751" t="n">
         <v>1</v>
       </c>
+      <c r="S751" t="inlineStr"/>
     </row>
     <row r="752">
       <c r="A752" s="1" t="n">
@@ -45933,6 +46740,7 @@
       <c r="R752" t="n">
         <v>1</v>
       </c>
+      <c r="S752" t="inlineStr"/>
     </row>
     <row r="753">
       <c r="A753" s="1" t="n">
@@ -45995,6 +46803,7 @@
       <c r="R753" t="n">
         <v>1</v>
       </c>
+      <c r="S753" t="inlineStr"/>
     </row>
     <row r="754">
       <c r="A754" s="1" t="n">
@@ -46055,6 +46864,7 @@
       <c r="R754" t="n">
         <v>1</v>
       </c>
+      <c r="S754" t="inlineStr"/>
     </row>
     <row r="755">
       <c r="A755" s="1" t="n">
@@ -46115,6 +46925,7 @@
       <c r="R755" t="n">
         <v>1</v>
       </c>
+      <c r="S755" t="inlineStr"/>
     </row>
     <row r="756">
       <c r="A756" s="1" t="n">
@@ -46177,6 +46988,7 @@
       <c r="R756" t="n">
         <v>1</v>
       </c>
+      <c r="S756" t="inlineStr"/>
     </row>
     <row r="757">
       <c r="A757" s="1" t="n">
@@ -46237,6 +47049,7 @@
       <c r="R757" t="n">
         <v>1</v>
       </c>
+      <c r="S757" t="inlineStr"/>
     </row>
     <row r="758">
       <c r="A758" s="1" t="n">
@@ -46297,6 +47110,7 @@
       <c r="R758" t="n">
         <v>1</v>
       </c>
+      <c r="S758" t="inlineStr"/>
     </row>
     <row r="759">
       <c r="A759" s="1" t="n">
@@ -46359,6 +47173,7 @@
       <c r="R759" t="n">
         <v>1</v>
       </c>
+      <c r="S759" t="inlineStr"/>
     </row>
     <row r="760">
       <c r="A760" s="1" t="n">
@@ -46417,6 +47232,7 @@
       <c r="R760" t="n">
         <v>1</v>
       </c>
+      <c r="S760" t="inlineStr"/>
     </row>
     <row r="761">
       <c r="A761" s="1" t="n">
@@ -46477,6 +47293,7 @@
       <c r="R761" t="n">
         <v>1</v>
       </c>
+      <c r="S761" t="inlineStr"/>
     </row>
     <row r="762">
       <c r="A762" s="1" t="n">
@@ -46539,6 +47356,7 @@
       <c r="R762" t="n">
         <v>1</v>
       </c>
+      <c r="S762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" s="1" t="n">
@@ -46599,6 +47417,7 @@
       <c r="R763" t="n">
         <v>1</v>
       </c>
+      <c r="S763" t="inlineStr"/>
     </row>
     <row r="764">
       <c r="A764" s="1" t="n">
@@ -46659,6 +47478,7 @@
       <c r="R764" t="n">
         <v>1</v>
       </c>
+      <c r="S764" t="inlineStr"/>
     </row>
     <row r="765">
       <c r="A765" s="1" t="n">
@@ -46721,6 +47541,7 @@
       <c r="R765" t="n">
         <v>1</v>
       </c>
+      <c r="S765" t="inlineStr"/>
     </row>
     <row r="766">
       <c r="A766" s="1" t="n">
@@ -46783,6 +47604,7 @@
       <c r="R766" t="n">
         <v>1</v>
       </c>
+      <c r="S766" t="inlineStr"/>
     </row>
     <row r="767">
       <c r="A767" s="1" t="n">
@@ -46841,6 +47663,7 @@
       <c r="R767" t="n">
         <v>1</v>
       </c>
+      <c r="S767" t="inlineStr"/>
     </row>
     <row r="768">
       <c r="A768" s="1" t="n">
@@ -46903,6 +47726,7 @@
       <c r="R768" t="n">
         <v>1</v>
       </c>
+      <c r="S768" t="inlineStr"/>
     </row>
     <row r="769">
       <c r="A769" s="1" t="n">
@@ -46965,6 +47789,7 @@
       <c r="R769" t="n">
         <v>1</v>
       </c>
+      <c r="S769" t="inlineStr"/>
     </row>
     <row r="770">
       <c r="A770" s="1" t="n">
@@ -47027,6 +47852,7 @@
       <c r="R770" t="n">
         <v>1</v>
       </c>
+      <c r="S770" t="inlineStr"/>
     </row>
     <row r="771">
       <c r="A771" s="1" t="n">
@@ -47085,6 +47911,7 @@
       <c r="R771" t="n">
         <v>1</v>
       </c>
+      <c r="S771" t="inlineStr"/>
     </row>
     <row r="772">
       <c r="A772" s="1" t="n">
@@ -47147,6 +47974,7 @@
       <c r="R772" t="n">
         <v>1</v>
       </c>
+      <c r="S772" t="inlineStr"/>
     </row>
     <row r="773">
       <c r="A773" s="1" t="n">
@@ -47205,6 +48033,7 @@
       <c r="R773" t="n">
         <v>1</v>
       </c>
+      <c r="S773" t="inlineStr"/>
     </row>
     <row r="774">
       <c r="A774" s="1" t="n">
@@ -47267,6 +48096,7 @@
       <c r="R774" t="n">
         <v>1</v>
       </c>
+      <c r="S774" t="inlineStr"/>
     </row>
     <row r="775">
       <c r="A775" s="1" t="n">
@@ -47331,6 +48161,11 @@
       <c r="R775" t="n">
         <v>51.737151704</v>
       </c>
+      <c r="S775" t="inlineStr">
+        <is>
+          <t>5.728753,51.748545;5.728594,51.748487;5.728004,51.748304;5.72414,51.74736;5.717554,51.745667;5.717141,51.745564;5.716948,51.745532;5.716776,51.745515;5.716737,51.745513;5.716497,51.745503;5.716346,51.745521;5.71623,51.745524;5.716103,51.745519;5.71596,51.745506;5.715836,51.745488;5.715627,51.74546;5.715596,51.745483;5.715558,51.745502;5.715514,51.745516;5.715458,51.745525;5.715399,51.745526;5.715342,51.745519;5.715284,51.745502;5.715235,51.745476;5.715198,51.745444;5.715194,51.745438;5.715175,51.745406;5.715169,51.745367;5.715158,51.745363;5.714973,51.745305;5.71482,51.74525;5.714727,51.745212;5.714625,51.745167;5.714522,51.745117;5.714453,51.745059;5.714263,51.744969;5.714036,51.744885;5.713837,51.744828;5.713124,51.744676;5.711724,51.744409;5.710339,51.744132;5.708898,51.743848;5.707465,51.743556;5.706158,51.743306;5.7057,51.743217;5.705417,51.743178;5.705133,51.743124;5.704878,51.743073;5.704186,51.742936;5.703566,51.742814;5.703177,51.742715;5.702435,51.742573;5.701693,51.742426;5.699844,51.742061;5.697161,51.741528;5.69376,51.740849;5.690819,51.740272;5.688026,51.739715;5.687223,51.739556;5.684357,51.738994;5.684201,51.738963;5.683009,51.738764;5.681938,51.738563;5.681764,51.738535;5.681704,51.738569;5.68163,51.73859;5.681551,51.738594;5.681478,51.738584;5.681416,51.738562;5.681367,51.73853;5.681335,51.738491;5.681322,51.738448;5.681109,51.738396;5.680255,51.738219;5.679465,51.73805;5.678964,51.737942;5.678762,51.737886;5.678281,51.737802;5.677524,51.73768;5.677128,51.737651;5.676657,51.737587;5.675177,51.737414;5.674898,51.737381;5.674682,51.737348;5.674479,51.737298;5.673916,51.737234;5.673795,51.73722;5.673075,51.737185;5.672231,51.737134;5.671804,51.737132;5.671027,51.737142;5.670873,51.737144;5.670771,51.737167;5.670508,51.737169;5.670393,51.737177;5.670353,51.737183;5.670332,51.737216;5.670296,51.737246;5.670255,51.737274;5.670216,51.737292;5.670131,51.737315;5.670059,51.737323;5.669991,51.737322;5.669945,51.737315;5.669917,51.737311;5.669878,51.737299;5.669823,51.737278;5.669766,51.73725;5.669702,51.737216;5.669682,51.737207;5.669642,51.737196;5.669615,51.737189;5.669584,51.737186;5.6695,51.737181;5.669315,51.737174;5.66919,51.737155;5.668204,51.737142;5.667311,51.737127;5.665903,51.737113;5.665466,51.737084;5.664172,51.73709;5.663874,51.737091;5.659525,51.737106;5.659078,51.737108;5.657577,51.737112;5.65591,51.73712;5.655054,51.737121;5.652843,51.737128;5.652171,51.737179;5.651891,51.737182;5.651457,51.737185;5.650061,51.737183;5.649984,51.737183;5.649703,51.737183;5.6494,51.737185;5.648041,51.737176;5.64774,51.737173;5.646963,51.737147;5.645052,51.737152;5.64492,51.737152</t>
+        </is>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="1" t="n">
@@ -47393,6 +48228,7 @@
       <c r="R776" t="n">
         <v>1</v>
       </c>
+      <c r="S776" t="inlineStr"/>
     </row>
     <row r="777">
       <c r="A777" s="1" t="n">
@@ -47455,6 +48291,7 @@
       <c r="R777" t="n">
         <v>1</v>
       </c>
+      <c r="S777" t="inlineStr"/>
     </row>
     <row r="778">
       <c r="A778" s="1" t="n">
@@ -47515,6 +48352,7 @@
       <c r="R778" t="n">
         <v>1</v>
       </c>
+      <c r="S778" t="inlineStr"/>
     </row>
     <row r="779">
       <c r="A779" s="1" t="n">
@@ -47575,6 +48413,7 @@
       <c r="R779" t="n">
         <v>1</v>
       </c>
+      <c r="S779" t="inlineStr"/>
     </row>
     <row r="780">
       <c r="A780" s="1" t="n">
@@ -47633,6 +48472,7 @@
       <c r="R780" t="n">
         <v>1</v>
       </c>
+      <c r="S780" t="inlineStr"/>
     </row>
     <row r="781">
       <c r="A781" s="1" t="n">
@@ -47691,6 +48531,7 @@
       <c r="R781" t="n">
         <v>1</v>
       </c>
+      <c r="S781" t="inlineStr"/>
     </row>
     <row r="782">
       <c r="A782" s="1" t="n">
@@ -47749,6 +48590,7 @@
       <c r="R782" t="n">
         <v>1</v>
       </c>
+      <c r="S782" t="inlineStr"/>
     </row>
     <row r="783">
       <c r="A783" s="1" t="n">
@@ -47811,6 +48653,7 @@
       <c r="R783" t="n">
         <v>1</v>
       </c>
+      <c r="S783" t="inlineStr"/>
     </row>
     <row r="784">
       <c r="A784" s="1" t="n">
@@ -47873,6 +48716,7 @@
       <c r="R784" t="n">
         <v>1</v>
       </c>
+      <c r="S784" t="inlineStr"/>
     </row>
     <row r="785">
       <c r="A785" s="1" t="n">
@@ -47935,6 +48779,7 @@
       <c r="R785" t="n">
         <v>1</v>
       </c>
+      <c r="S785" t="inlineStr"/>
     </row>
     <row r="786">
       <c r="A786" s="1" t="n">
@@ -47995,6 +48840,7 @@
       <c r="R786" t="n">
         <v>1</v>
       </c>
+      <c r="S786" t="inlineStr"/>
     </row>
     <row r="787">
       <c r="A787" s="1" t="n">
@@ -48053,6 +48899,7 @@
       <c r="R787" t="n">
         <v>1</v>
       </c>
+      <c r="S787" t="inlineStr"/>
     </row>
     <row r="788">
       <c r="A788" s="1" t="n">
@@ -48115,6 +48962,7 @@
       <c r="R788" t="n">
         <v>1</v>
       </c>
+      <c r="S788" t="inlineStr"/>
     </row>
     <row r="789">
       <c r="A789" s="1" t="n">
@@ -48175,6 +49023,7 @@
       <c r="R789" t="n">
         <v>1</v>
       </c>
+      <c r="S789" t="inlineStr"/>
     </row>
     <row r="790">
       <c r="A790" s="1" t="n">
@@ -48235,6 +49084,7 @@
       <c r="R790" t="n">
         <v>1</v>
       </c>
+      <c r="S790" t="inlineStr"/>
     </row>
     <row r="791">
       <c r="A791" s="1" t="n">
@@ -48293,6 +49143,7 @@
       <c r="R791" t="n">
         <v>1</v>
       </c>
+      <c r="S791" t="inlineStr"/>
     </row>
     <row r="792">
       <c r="A792" s="1" t="n">
@@ -48355,6 +49206,7 @@
       <c r="R792" t="n">
         <v>1</v>
       </c>
+      <c r="S792" t="inlineStr"/>
     </row>
     <row r="793">
       <c r="A793" s="1" t="n">
@@ -48413,6 +49265,7 @@
       <c r="R793" t="n">
         <v>1</v>
       </c>
+      <c r="S793" t="inlineStr"/>
     </row>
     <row r="794">
       <c r="A794" s="1" t="n">
@@ -48471,6 +49324,7 @@
       <c r="R794" t="n">
         <v>1</v>
       </c>
+      <c r="S794" t="inlineStr"/>
     </row>
     <row r="795">
       <c r="A795" s="1" t="n">
@@ -48529,6 +49383,7 @@
       <c r="R795" t="n">
         <v>1</v>
       </c>
+      <c r="S795" t="inlineStr"/>
     </row>
     <row r="796">
       <c r="A796" s="1" t="n">
@@ -48591,6 +49446,7 @@
       <c r="R796" t="n">
         <v>1</v>
       </c>
+      <c r="S796" t="inlineStr"/>
     </row>
     <row r="797">
       <c r="A797" s="1" t="n">
@@ -48653,6 +49509,7 @@
       <c r="R797" t="n">
         <v>1</v>
       </c>
+      <c r="S797" t="inlineStr"/>
     </row>
     <row r="798">
       <c r="A798" s="1" t="n">
@@ -48713,6 +49570,7 @@
       <c r="R798" t="n">
         <v>1</v>
       </c>
+      <c r="S798" t="inlineStr"/>
     </row>
     <row r="799">
       <c r="A799" s="1" t="n">
@@ -48771,6 +49629,7 @@
       <c r="R799" t="n">
         <v>1</v>
       </c>
+      <c r="S799" t="inlineStr"/>
     </row>
     <row r="800">
       <c r="A800" s="1" t="n">
@@ -48831,6 +49690,7 @@
       <c r="R800" t="n">
         <v>1</v>
       </c>
+      <c r="S800" t="inlineStr"/>
     </row>
     <row r="801">
       <c r="A801" s="1" t="n">
@@ -48889,6 +49749,7 @@
       <c r="R801" t="n">
         <v>1</v>
       </c>
+      <c r="S801" t="inlineStr"/>
     </row>
     <row r="802">
       <c r="A802" s="1" t="n">
@@ -48951,6 +49812,7 @@
       <c r="R802" t="n">
         <v>1</v>
       </c>
+      <c r="S802" t="inlineStr"/>
     </row>
     <row r="803">
       <c r="A803" s="1" t="n">
@@ -49013,6 +49875,7 @@
       <c r="R803" t="n">
         <v>1</v>
       </c>
+      <c r="S803" t="inlineStr"/>
     </row>
     <row r="804">
       <c r="A804" s="1" t="n">
@@ -49075,6 +49938,7 @@
       <c r="R804" t="n">
         <v>1</v>
       </c>
+      <c r="S804" t="inlineStr"/>
     </row>
     <row r="805">
       <c r="A805" s="1" t="n">
@@ -49139,6 +50003,11 @@
       <c r="R805" t="n">
         <v>51.641608642</v>
       </c>
+      <c r="S805" t="inlineStr">
+        <is>
+          <t>5.481707,51.635838;5.476951,51.638302;5.475678,51.638964;5.474067,51.63981;5.472231,51.640776;5.470626,51.641606</t>
+        </is>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="1" t="n">
@@ -49201,6 +50070,7 @@
       <c r="R806" t="n">
         <v>1</v>
       </c>
+      <c r="S806" t="inlineStr"/>
     </row>
     <row r="807">
       <c r="A807" s="1" t="n">
@@ -49263,6 +50133,7 @@
       <c r="R807" t="n">
         <v>1</v>
       </c>
+      <c r="S807" t="inlineStr"/>
     </row>
     <row r="808">
       <c r="A808" s="1" t="n">
@@ -49321,6 +50192,7 @@
       <c r="R808" t="n">
         <v>1</v>
       </c>
+      <c r="S808" t="inlineStr"/>
     </row>
     <row r="809">
       <c r="A809" s="1" t="n">
@@ -49383,6 +50255,7 @@
       <c r="R809" t="n">
         <v>1</v>
       </c>
+      <c r="S809" t="inlineStr"/>
     </row>
     <row r="810">
       <c r="A810" s="1" t="n">
@@ -49445,6 +50318,7 @@
       <c r="R810" t="n">
         <v>1</v>
       </c>
+      <c r="S810" t="inlineStr"/>
     </row>
     <row r="811">
       <c r="A811" s="1" t="n">
@@ -49503,6 +50377,7 @@
       <c r="R811" t="n">
         <v>1</v>
       </c>
+      <c r="S811" t="inlineStr"/>
     </row>
     <row r="812">
       <c r="A812" s="1" t="n">
@@ -49565,6 +50440,7 @@
       <c r="R812" t="n">
         <v>1</v>
       </c>
+      <c r="S812" t="inlineStr"/>
     </row>
     <row r="813">
       <c r="A813" s="1" t="n">
@@ -49623,6 +50499,7 @@
       <c r="R813" t="n">
         <v>1</v>
       </c>
+      <c r="S813" t="inlineStr"/>
     </row>
     <row r="814">
       <c r="A814" s="1" t="n">
@@ -49685,6 +50562,7 @@
       <c r="R814" t="n">
         <v>1</v>
       </c>
+      <c r="S814" t="inlineStr"/>
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
@@ -49747,6 +50625,7 @@
       <c r="R815" t="n">
         <v>1</v>
       </c>
+      <c r="S815" t="inlineStr"/>
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
@@ -49809,6 +50688,7 @@
       <c r="R816" t="n">
         <v>1</v>
       </c>
+      <c r="S816" t="inlineStr"/>
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
@@ -49867,6 +50747,7 @@
       <c r="R817" t="n">
         <v>1</v>
       </c>
+      <c r="S817" t="inlineStr"/>
     </row>
     <row r="818">
       <c r="A818" s="1" t="n">
@@ -49929,6 +50810,7 @@
       <c r="R818" t="n">
         <v>1</v>
       </c>
+      <c r="S818" t="inlineStr"/>
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
@@ -49991,6 +50873,7 @@
       <c r="R819" t="n">
         <v>1</v>
       </c>
+      <c r="S819" t="inlineStr"/>
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
@@ -50053,6 +50936,7 @@
       <c r="R820" t="n">
         <v>1</v>
       </c>
+      <c r="S820" t="inlineStr"/>
     </row>
     <row r="821">
       <c r="A821" s="1" t="n">
@@ -50115,6 +50999,7 @@
       <c r="R821" t="n">
         <v>1</v>
       </c>
+      <c r="S821" t="inlineStr"/>
     </row>
     <row r="822">
       <c r="A822" s="1" t="n">
@@ -50177,6 +51062,7 @@
       <c r="R822" t="n">
         <v>1</v>
       </c>
+      <c r="S822" t="inlineStr"/>
     </row>
     <row r="823">
       <c r="A823" s="1" t="n">
@@ -50239,6 +51125,7 @@
       <c r="R823" t="n">
         <v>1</v>
       </c>
+      <c r="S823" t="inlineStr"/>
     </row>
     <row r="824">
       <c r="A824" s="1" t="n">
@@ -50301,6 +51188,7 @@
       <c r="R824" t="n">
         <v>1</v>
       </c>
+      <c r="S824" t="inlineStr"/>
     </row>
     <row r="825">
       <c r="A825" s="1" t="n">
@@ -50363,6 +51251,7 @@
       <c r="R825" t="n">
         <v>1</v>
       </c>
+      <c r="S825" t="inlineStr"/>
     </row>
     <row r="826">
       <c r="A826" s="1" t="n">
@@ -50425,6 +51314,7 @@
       <c r="R826" t="n">
         <v>1</v>
       </c>
+      <c r="S826" t="inlineStr"/>
     </row>
     <row r="827">
       <c r="A827" s="1" t="n">
@@ -50487,6 +51377,7 @@
       <c r="R827" t="n">
         <v>1</v>
       </c>
+      <c r="S827" t="inlineStr"/>
     </row>
     <row r="828">
       <c r="A828" s="1" t="n">
@@ -50547,6 +51438,7 @@
       <c r="R828" t="n">
         <v>1</v>
       </c>
+      <c r="S828" t="inlineStr"/>
     </row>
     <row r="829">
       <c r="A829" s="1" t="n">
@@ -50607,6 +51499,7 @@
       <c r="R829" t="n">
         <v>1</v>
       </c>
+      <c r="S829" t="inlineStr"/>
     </row>
     <row r="830">
       <c r="A830" s="1" t="n">
@@ -50669,6 +51562,7 @@
       <c r="R830" t="n">
         <v>1</v>
       </c>
+      <c r="S830" t="inlineStr"/>
     </row>
     <row r="831">
       <c r="A831" s="1" t="n">
@@ -50729,6 +51623,7 @@
       <c r="R831" t="n">
         <v>1</v>
       </c>
+      <c r="S831" t="inlineStr"/>
     </row>
     <row r="832">
       <c r="A832" s="1" t="n">
@@ -50791,6 +51686,7 @@
       <c r="R832" t="n">
         <v>1</v>
       </c>
+      <c r="S832" t="inlineStr"/>
     </row>
     <row r="833">
       <c r="A833" s="1" t="n">
@@ -50853,6 +51749,7 @@
       <c r="R833" t="n">
         <v>1</v>
       </c>
+      <c r="S833" t="inlineStr"/>
     </row>
     <row r="834">
       <c r="A834" s="1" t="n">
@@ -50907,6 +51804,7 @@
       <c r="R834" t="n">
         <v>1</v>
       </c>
+      <c r="S834" t="inlineStr"/>
     </row>
     <row r="835">
       <c r="A835" s="1" t="n">
@@ -50969,6 +51867,7 @@
       <c r="R835" t="n">
         <v>1</v>
       </c>
+      <c r="S835" t="inlineStr"/>
     </row>
     <row r="836">
       <c r="A836" s="1" t="n">
@@ -51027,6 +51926,7 @@
       <c r="R836" t="n">
         <v>1</v>
       </c>
+      <c r="S836" t="inlineStr"/>
     </row>
     <row r="837">
       <c r="A837" s="1" t="n">
@@ -51085,6 +51985,7 @@
       <c r="R837" t="n">
         <v>1</v>
       </c>
+      <c r="S837" t="inlineStr"/>
     </row>
     <row r="838">
       <c r="A838" s="1" t="n">
@@ -51143,6 +52044,7 @@
       <c r="R838" t="n">
         <v>1</v>
       </c>
+      <c r="S838" t="inlineStr"/>
     </row>
     <row r="839">
       <c r="A839" s="1" t="n">
@@ -51201,6 +52103,7 @@
       <c r="R839" t="n">
         <v>1</v>
       </c>
+      <c r="S839" t="inlineStr"/>
     </row>
     <row r="840">
       <c r="A840" s="1" t="n">
@@ -51259,6 +52162,7 @@
       <c r="R840" t="n">
         <v>1</v>
       </c>
+      <c r="S840" t="inlineStr"/>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
@@ -51317,6 +52221,7 @@
       <c r="R841" t="n">
         <v>1</v>
       </c>
+      <c r="S841" t="inlineStr"/>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
@@ -51379,6 +52284,7 @@
       <c r="R842" t="n">
         <v>1</v>
       </c>
+      <c r="S842" t="inlineStr"/>
     </row>
     <row r="843">
       <c r="A843" s="1" t="n">
@@ -51441,6 +52347,7 @@
       <c r="R843" t="n">
         <v>1</v>
       </c>
+      <c r="S843" t="inlineStr"/>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
@@ -51503,6 +52410,7 @@
       <c r="R844" t="n">
         <v>1</v>
       </c>
+      <c r="S844" t="inlineStr"/>
     </row>
     <row r="845">
       <c r="A845" s="1" t="n">
@@ -51565,6 +52473,7 @@
       <c r="R845" t="n">
         <v>1</v>
       </c>
+      <c r="S845" t="inlineStr"/>
     </row>
     <row r="846">
       <c r="A846" s="1" t="n">
@@ -51627,6 +52536,7 @@
       <c r="R846" t="n">
         <v>1</v>
       </c>
+      <c r="S846" t="inlineStr"/>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
@@ -51689,6 +52599,7 @@
       <c r="R847" t="n">
         <v>1</v>
       </c>
+      <c r="S847" t="inlineStr"/>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
@@ -51747,6 +52658,7 @@
       <c r="R848" t="n">
         <v>1</v>
       </c>
+      <c r="S848" t="inlineStr"/>
     </row>
     <row r="849">
       <c r="A849" s="1" t="n">
@@ -51809,6 +52721,7 @@
       <c r="R849" t="n">
         <v>1</v>
       </c>
+      <c r="S849" t="inlineStr"/>
     </row>
     <row r="850">
       <c r="A850" s="1" t="n">
@@ -51871,6 +52784,7 @@
       <c r="R850" t="n">
         <v>1</v>
       </c>
+      <c r="S850" t="inlineStr"/>
     </row>
     <row r="851">
       <c r="A851" s="1" t="n">
@@ -51929,6 +52843,7 @@
       <c r="R851" t="n">
         <v>1</v>
       </c>
+      <c r="S851" t="inlineStr"/>
     </row>
     <row r="852">
       <c r="A852" s="1" t="n">
@@ -51989,6 +52904,7 @@
       <c r="R852" t="n">
         <v>1</v>
       </c>
+      <c r="S852" t="inlineStr"/>
     </row>
     <row r="853">
       <c r="A853" s="1" t="n">
@@ -52051,6 +52967,7 @@
       <c r="R853" t="n">
         <v>1</v>
       </c>
+      <c r="S853" t="inlineStr"/>
     </row>
     <row r="854">
       <c r="A854" s="1" t="n">
@@ -52111,6 +53028,7 @@
       <c r="R854" t="n">
         <v>1</v>
       </c>
+      <c r="S854" t="inlineStr"/>
     </row>
     <row r="855">
       <c r="A855" s="1" t="n">
@@ -52171,6 +53089,7 @@
       <c r="R855" t="n">
         <v>1</v>
       </c>
+      <c r="S855" t="inlineStr"/>
     </row>
     <row r="856">
       <c r="A856" s="1" t="n">
@@ -52231,6 +53150,7 @@
       <c r="R856" t="n">
         <v>1</v>
       </c>
+      <c r="S856" t="inlineStr"/>
     </row>
     <row r="857">
       <c r="A857" s="1" t="n">
@@ -52293,6 +53213,7 @@
       <c r="R857" t="n">
         <v>1</v>
       </c>
+      <c r="S857" t="inlineStr"/>
     </row>
     <row r="858">
       <c r="A858" s="1" t="n">
@@ -52351,6 +53272,7 @@
       <c r="R858" t="n">
         <v>1</v>
       </c>
+      <c r="S858" t="inlineStr"/>
     </row>
     <row r="859">
       <c r="A859" s="1" t="n">
@@ -52413,6 +53335,7 @@
       <c r="R859" t="n">
         <v>1</v>
       </c>
+      <c r="S859" t="inlineStr"/>
     </row>
     <row r="860">
       <c r="A860" s="1" t="n">
@@ -52471,6 +53394,7 @@
       <c r="R860" t="n">
         <v>1</v>
       </c>
+      <c r="S860" t="inlineStr"/>
     </row>
     <row r="861">
       <c r="A861" s="1" t="n">
@@ -52533,6 +53457,7 @@
       <c r="R861" t="n">
         <v>1</v>
       </c>
+      <c r="S861" t="inlineStr"/>
     </row>
     <row r="862">
       <c r="A862" s="1" t="n">
@@ -52595,6 +53520,7 @@
       <c r="R862" t="n">
         <v>1</v>
       </c>
+      <c r="S862" t="inlineStr"/>
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
@@ -52657,6 +53583,7 @@
       <c r="R863" t="n">
         <v>1</v>
       </c>
+      <c r="S863" t="inlineStr"/>
     </row>
     <row r="864">
       <c r="A864" s="1" t="n">
@@ -52715,6 +53642,7 @@
       <c r="R864" t="n">
         <v>1</v>
       </c>
+      <c r="S864" t="inlineStr"/>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
@@ -52777,6 +53705,7 @@
       <c r="R865" t="n">
         <v>1</v>
       </c>
+      <c r="S865" t="inlineStr"/>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
@@ -52839,6 +53768,7 @@
       <c r="R866" t="n">
         <v>1</v>
       </c>
+      <c r="S866" t="inlineStr"/>
     </row>
     <row r="867">
       <c r="A867" s="1" t="n">
@@ -52899,6 +53829,7 @@
       <c r="R867" t="n">
         <v>1</v>
       </c>
+      <c r="S867" t="inlineStr"/>
     </row>
     <row r="868">
       <c r="A868" s="1" t="n">
@@ -52961,6 +53892,7 @@
       <c r="R868" t="n">
         <v>1</v>
       </c>
+      <c r="S868" t="inlineStr"/>
     </row>
     <row r="869">
       <c r="A869" s="1" t="n">
@@ -53023,6 +53955,7 @@
       <c r="R869" t="n">
         <v>1</v>
       </c>
+      <c r="S869" t="inlineStr"/>
     </row>
     <row r="870">
       <c r="A870" s="1" t="n">
@@ -53083,6 +54016,7 @@
       <c r="R870" t="n">
         <v>1</v>
       </c>
+      <c r="S870" t="inlineStr"/>
     </row>
     <row r="871">
       <c r="A871" s="1" t="n">
@@ -53143,6 +54077,7 @@
       <c r="R871" t="n">
         <v>1</v>
       </c>
+      <c r="S871" t="inlineStr"/>
     </row>
     <row r="872">
       <c r="A872" s="1" t="n">
@@ -53203,6 +54138,7 @@
       <c r="R872" t="n">
         <v>1</v>
       </c>
+      <c r="S872" t="inlineStr"/>
     </row>
     <row r="873">
       <c r="A873" s="1" t="n">
@@ -53263,6 +54199,7 @@
       <c r="R873" t="n">
         <v>1</v>
       </c>
+      <c r="S873" t="inlineStr"/>
     </row>
     <row r="874">
       <c r="A874" s="1" t="n">
@@ -53325,6 +54262,7 @@
       <c r="R874" t="n">
         <v>1</v>
       </c>
+      <c r="S874" t="inlineStr"/>
     </row>
     <row r="875">
       <c r="A875" s="1" t="n">
@@ -53383,6 +54321,7 @@
       <c r="R875" t="n">
         <v>1</v>
       </c>
+      <c r="S875" t="inlineStr"/>
     </row>
     <row r="876">
       <c r="A876" s="1" t="n">
@@ -53445,6 +54384,7 @@
       <c r="R876" t="n">
         <v>1</v>
       </c>
+      <c r="S876" t="inlineStr"/>
     </row>
     <row r="877">
       <c r="A877" s="1" t="n">
@@ -53505,6 +54445,7 @@
       <c r="R877" t="n">
         <v>1</v>
       </c>
+      <c r="S877" t="inlineStr"/>
     </row>
     <row r="878">
       <c r="A878" s="1" t="n">
@@ -53567,6 +54508,7 @@
       <c r="R878" t="n">
         <v>1</v>
       </c>
+      <c r="S878" t="inlineStr"/>
     </row>
     <row r="879">
       <c r="A879" s="1" t="n">
@@ -53629,6 +54571,7 @@
       <c r="R879" t="n">
         <v>1</v>
       </c>
+      <c r="S879" t="inlineStr"/>
     </row>
     <row r="880">
       <c r="A880" s="1" t="n">
@@ -53691,6 +54634,7 @@
       <c r="R880" t="n">
         <v>1</v>
       </c>
+      <c r="S880" t="inlineStr"/>
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
@@ -53753,6 +54697,7 @@
       <c r="R881" t="n">
         <v>1</v>
       </c>
+      <c r="S881" t="inlineStr"/>
     </row>
     <row r="882">
       <c r="A882" s="1" t="n">
@@ -53811,6 +54756,7 @@
       <c r="R882" t="n">
         <v>1</v>
       </c>
+      <c r="S882" t="inlineStr"/>
     </row>
     <row r="883">
       <c r="A883" s="1" t="n">
@@ -53869,6 +54815,7 @@
       <c r="R883" t="n">
         <v>1</v>
       </c>
+      <c r="S883" t="inlineStr"/>
     </row>
     <row r="884">
       <c r="A884" s="1" t="n">
@@ -53927,6 +54874,7 @@
       <c r="R884" t="n">
         <v>1</v>
       </c>
+      <c r="S884" t="inlineStr"/>
     </row>
     <row r="885">
       <c r="A885" s="1" t="n">
@@ -53989,6 +54937,7 @@
       <c r="R885" t="n">
         <v>1</v>
       </c>
+      <c r="S885" t="inlineStr"/>
     </row>
     <row r="886">
       <c r="A886" s="1" t="n">
@@ -54051,6 +55000,7 @@
       <c r="R886" t="n">
         <v>1</v>
       </c>
+      <c r="S886" t="inlineStr"/>
     </row>
     <row r="887">
       <c r="A887" s="1" t="n">
@@ -54113,6 +55063,7 @@
       <c r="R887" t="n">
         <v>1</v>
       </c>
+      <c r="S887" t="inlineStr"/>
     </row>
     <row r="888">
       <c r="A888" s="1" t="n">
@@ -54171,6 +55122,7 @@
       <c r="R888" t="n">
         <v>1</v>
       </c>
+      <c r="S888" t="inlineStr"/>
     </row>
     <row r="889">
       <c r="A889" s="1" t="n">
@@ -54233,6 +55185,7 @@
       <c r="R889" t="n">
         <v>1</v>
       </c>
+      <c r="S889" t="inlineStr"/>
     </row>
     <row r="890">
       <c r="A890" s="1" t="n">
@@ -54295,6 +55248,7 @@
       <c r="R890" t="n">
         <v>1</v>
       </c>
+      <c r="S890" t="inlineStr"/>
     </row>
     <row r="891">
       <c r="A891" s="1" t="n">
@@ -54357,6 +55311,7 @@
       <c r="R891" t="n">
         <v>1</v>
       </c>
+      <c r="S891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" s="1" t="n">
@@ -54419,6 +55374,7 @@
       <c r="R892" t="n">
         <v>1</v>
       </c>
+      <c r="S892" t="inlineStr"/>
     </row>
     <row r="893">
       <c r="A893" s="1" t="n">
@@ -54477,6 +55433,7 @@
       <c r="R893" t="n">
         <v>1</v>
       </c>
+      <c r="S893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" s="1" t="n">
@@ -54541,6 +55498,7 @@
       <c r="R894" t="n">
         <v>1</v>
       </c>
+      <c r="S894" t="inlineStr"/>
     </row>
     <row r="895">
       <c r="A895" s="1" t="n">
@@ -54599,6 +55557,7 @@
       <c r="R895" t="n">
         <v>1</v>
       </c>
+      <c r="S895" t="inlineStr"/>
     </row>
     <row r="896">
       <c r="A896" s="1" t="n">
@@ -54657,6 +55616,7 @@
       <c r="R896" t="n">
         <v>1</v>
       </c>
+      <c r="S896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" s="1" t="n">
@@ -54719,6 +55679,7 @@
       <c r="R897" t="n">
         <v>1</v>
       </c>
+      <c r="S897" t="inlineStr"/>
     </row>
     <row r="898">
       <c r="A898" s="1" t="n">
@@ -54781,6 +55742,7 @@
       <c r="R898" t="n">
         <v>1</v>
       </c>
+      <c r="S898" t="inlineStr"/>
     </row>
     <row r="899">
       <c r="A899" s="1" t="n">
@@ -54839,6 +55801,7 @@
       <c r="R899" t="n">
         <v>1</v>
       </c>
+      <c r="S899" t="inlineStr"/>
     </row>
     <row r="900">
       <c r="A900" s="1" t="n">
@@ -54901,6 +55864,7 @@
       <c r="R900" t="n">
         <v>1</v>
       </c>
+      <c r="S900" t="inlineStr"/>
     </row>
     <row r="901">
       <c r="A901" s="1" t="n">
@@ -54959,6 +55923,7 @@
       <c r="R901" t="n">
         <v>1</v>
       </c>
+      <c r="S901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" s="1" t="n">
@@ -55017,6 +55982,7 @@
       <c r="R902" t="n">
         <v>1</v>
       </c>
+      <c r="S902" t="inlineStr"/>
     </row>
     <row r="903">
       <c r="A903" s="1" t="n">
@@ -55079,6 +56045,7 @@
       <c r="R903" t="n">
         <v>1</v>
       </c>
+      <c r="S903" t="inlineStr"/>
     </row>
     <row r="904">
       <c r="A904" s="1" t="n">
@@ -55141,6 +56108,7 @@
       <c r="R904" t="n">
         <v>1</v>
       </c>
+      <c r="S904" t="inlineStr"/>
     </row>
     <row r="905">
       <c r="A905" s="1" t="n">
@@ -55203,6 +56171,7 @@
       <c r="R905" t="n">
         <v>1</v>
       </c>
+      <c r="S905" t="inlineStr"/>
     </row>
     <row r="906">
       <c r="A906" s="1" t="n">
@@ -55265,6 +56234,7 @@
       <c r="R906" t="n">
         <v>1</v>
       </c>
+      <c r="S906" t="inlineStr"/>
     </row>
     <row r="907">
       <c r="A907" s="1" t="n">
@@ -55327,6 +56297,7 @@
       <c r="R907" t="n">
         <v>1</v>
       </c>
+      <c r="S907" t="inlineStr"/>
     </row>
     <row r="908">
       <c r="A908" s="1" t="n">
@@ -55389,6 +56360,7 @@
       <c r="R908" t="n">
         <v>1</v>
       </c>
+      <c r="S908" t="inlineStr"/>
     </row>
     <row r="909">
       <c r="A909" s="1" t="n">
@@ -55451,6 +56423,7 @@
       <c r="R909" t="n">
         <v>1</v>
       </c>
+      <c r="S909" t="inlineStr"/>
     </row>
     <row r="910">
       <c r="A910" s="1" t="n">
@@ -55509,6 +56482,7 @@
       <c r="R910" t="n">
         <v>1</v>
       </c>
+      <c r="S910" t="inlineStr"/>
     </row>
     <row r="911">
       <c r="A911" s="1" t="n">
@@ -55571,6 +56545,7 @@
       <c r="R911" t="n">
         <v>1</v>
       </c>
+      <c r="S911" t="inlineStr"/>
     </row>
     <row r="912">
       <c r="A912" s="1" t="n">
@@ -55629,6 +56604,7 @@
       <c r="R912" t="n">
         <v>1</v>
       </c>
+      <c r="S912" t="inlineStr"/>
     </row>
     <row r="913">
       <c r="A913" s="1" t="n">
@@ -55687,6 +56663,7 @@
       <c r="R913" t="n">
         <v>1</v>
       </c>
+      <c r="S913" t="inlineStr"/>
     </row>
     <row r="914">
       <c r="A914" s="1" t="n">
@@ -55745,6 +56722,7 @@
       <c r="R914" t="n">
         <v>1</v>
       </c>
+      <c r="S914" t="inlineStr"/>
     </row>
     <row r="915">
       <c r="A915" s="1" t="n">
@@ -55807,6 +56785,7 @@
       <c r="R915" t="n">
         <v>1</v>
       </c>
+      <c r="S915" t="inlineStr"/>
     </row>
     <row r="916">
       <c r="A916" s="1" t="n">
@@ -55869,6 +56848,7 @@
       <c r="R916" t="n">
         <v>1</v>
       </c>
+      <c r="S916" t="inlineStr"/>
     </row>
     <row r="917">
       <c r="A917" s="1" t="n">
@@ -55927,6 +56907,7 @@
       <c r="R917" t="n">
         <v>1</v>
       </c>
+      <c r="S917" t="inlineStr"/>
     </row>
     <row r="918">
       <c r="A918" s="1" t="n">
@@ -55985,6 +56966,7 @@
       <c r="R918" t="n">
         <v>1</v>
       </c>
+      <c r="S918" t="inlineStr"/>
     </row>
     <row r="919">
       <c r="A919" s="1" t="n">
@@ -56047,6 +57029,7 @@
       <c r="R919" t="n">
         <v>1</v>
       </c>
+      <c r="S919" t="inlineStr"/>
     </row>
     <row r="920">
       <c r="A920" s="1" t="n">
@@ -56107,6 +57090,7 @@
       <c r="R920" t="n">
         <v>1</v>
       </c>
+      <c r="S920" t="inlineStr"/>
     </row>
     <row r="921">
       <c r="A921" s="1" t="n">
@@ -56169,6 +57153,7 @@
       <c r="R921" t="n">
         <v>1</v>
       </c>
+      <c r="S921" t="inlineStr"/>
     </row>
     <row r="922">
       <c r="A922" s="1" t="n">
@@ -56231,6 +57216,7 @@
       <c r="R922" t="n">
         <v>1</v>
       </c>
+      <c r="S922" t="inlineStr"/>
     </row>
     <row r="923">
       <c r="A923" s="1" t="n">
@@ -56289,6 +57275,7 @@
       <c r="R923" t="n">
         <v>1</v>
       </c>
+      <c r="S923" t="inlineStr"/>
     </row>
     <row r="924">
       <c r="A924" s="1" t="n">
@@ -56351,6 +57338,7 @@
       <c r="R924" t="n">
         <v>1</v>
       </c>
+      <c r="S924" t="inlineStr"/>
     </row>
     <row r="925">
       <c r="A925" s="1" t="n">
@@ -56413,6 +57401,7 @@
       <c r="R925" t="n">
         <v>1</v>
       </c>
+      <c r="S925" t="inlineStr"/>
     </row>
     <row r="926">
       <c r="A926" s="1" t="n">
@@ -56473,6 +57462,7 @@
       <c r="R926" t="n">
         <v>1</v>
       </c>
+      <c r="S926" t="inlineStr"/>
     </row>
     <row r="927">
       <c r="A927" s="1" t="n">
@@ -56535,6 +57525,7 @@
       <c r="R927" t="n">
         <v>1</v>
       </c>
+      <c r="S927" t="inlineStr"/>
     </row>
     <row r="928">
       <c r="A928" s="1" t="n">
@@ -56597,6 +57588,7 @@
       <c r="R928" t="n">
         <v>1</v>
       </c>
+      <c r="S928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" s="1" t="n">
@@ -56657,6 +57649,7 @@
       <c r="R929" t="n">
         <v>1</v>
       </c>
+      <c r="S929" t="inlineStr"/>
     </row>
     <row r="930">
       <c r="A930" s="1" t="n">
@@ -56719,6 +57712,7 @@
       <c r="R930" t="n">
         <v>1</v>
       </c>
+      <c r="S930" t="inlineStr"/>
     </row>
     <row r="931">
       <c r="A931" s="1" t="n">
@@ -56781,6 +57775,7 @@
       <c r="R931" t="n">
         <v>1</v>
       </c>
+      <c r="S931" t="inlineStr"/>
     </row>
     <row r="932">
       <c r="A932" s="1" t="n">
@@ -56837,6 +57832,7 @@
       <c r="R932" t="n">
         <v>1</v>
       </c>
+      <c r="S932" t="inlineStr"/>
     </row>
     <row r="933">
       <c r="A933" s="1" t="n">
@@ -56897,6 +57893,7 @@
       <c r="R933" t="n">
         <v>1</v>
       </c>
+      <c r="S933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" s="1" t="n">
@@ -56955,6 +57952,7 @@
       <c r="R934" t="n">
         <v>1</v>
       </c>
+      <c r="S934" t="inlineStr"/>
     </row>
     <row r="935">
       <c r="A935" s="1" t="n">
@@ -57017,6 +58015,7 @@
       <c r="R935" t="n">
         <v>1</v>
       </c>
+      <c r="S935" t="inlineStr"/>
     </row>
     <row r="936">
       <c r="A936" s="1" t="n">
@@ -57075,6 +58074,7 @@
       <c r="R936" t="n">
         <v>1</v>
       </c>
+      <c r="S936" t="inlineStr"/>
     </row>
     <row r="937">
       <c r="A937" s="1" t="n">
@@ -57137,6 +58137,7 @@
       <c r="R937" t="n">
         <v>1</v>
       </c>
+      <c r="S937" t="inlineStr"/>
     </row>
     <row r="938">
       <c r="A938" s="1" t="n">
@@ -57201,6 +58202,11 @@
       <c r="R938" t="n">
         <v>51.785949202</v>
       </c>
+      <c r="S938" t="inlineStr">
+        <is>
+          <t>5.66958,51.712627;5.669357,51.712648;5.669308,51.712715;5.669221,51.712766;5.66911,51.712793;5.669003,51.713184;5.668929,51.71343;5.668928,51.713538;5.668889,51.717678;5.668866,51.721653;5.66886,51.722207;5.668859,51.722832;5.66886,51.72417;5.668843,51.725417;5.668837,51.726132;5.668832,51.726839;5.66883,51.727371;5.668821,51.728464;5.668823,51.728847;5.668832,51.729366;5.668898,51.729917;5.66901,51.73064;5.66964,51.734757;5.669661,51.734894;5.669715,51.73517;5.669805,51.735371;5.669873,51.73554;5.670019,51.735924;5.670087,51.736106;5.670118,51.736227;5.670154,51.736555;5.670126,51.736592;5.670125,51.736678;5.670123,51.736761;5.670124,51.736826;5.670126,51.736848;5.670134,51.736905;5.670195,51.736917;5.670252,51.736942;5.67029,51.736963;5.670325,51.736993;5.670345,51.737025;5.670367,51.737059;5.670371,51.737092;5.670373,51.737119;5.670367,51.737142;5.67036,51.737166;5.670353,51.737183;5.670332,51.737216;5.670296,51.737246;5.670255,51.737274;5.670216,51.737292;5.670131,51.737315;5.670115,51.737408;5.670111,51.737461;5.67001,51.73811;5.669864,51.738563;5.669672,51.738914;5.669471,51.739323;5.669389,51.739484;5.66904,51.74016;5.6684,51.74139;5.66792,51.74222;5.667277,51.743319;5.667179,51.743595;5.667135,51.743722;5.66711,51.743858;5.667179,51.743891;5.667228,51.743936;5.667253,51.743988;5.667254,51.744029;5.66724,51.744069;5.667212,51.744106;5.667161,51.744143;5.667097,51.74417;5.667022,51.744185;5.666984,51.744231;5.666942,51.744321;5.666874,51.744474;5.666797,51.744642;5.666795,51.744652;5.666655,51.745343;5.666617,51.745694;5.666583,51.746553;5.66657,51.747117;5.666553,51.747711;5.666547,51.748177;5.666548,51.748702;5.666573,51.749315;5.666612,51.749803;5.666655,51.750168;5.666742,51.750743;5.66689,51.75148;5.666941,51.75171;5.667033,51.752067;5.667098,51.752311;5.667181,51.752619;5.66905,51.759346;5.669169,51.759851;5.669266,51.760334;5.669322,51.760693;5.669384,51.761179;5.669437,51.762127;5.66942,51.76287;5.66939,51.76343;5.6693,51.76414;5.66916,51.76483;5.66894,51.76565;5.668622,51.766616;5.668579,51.76673;5.66814,51.768097;5.667944,51.7687;5.66774,51.769336;5.667478,51.770139;5.667213,51.770949;5.666838,51.772245;5.666792,51.772651;5.666826,51.772899;5.666855,51.773092;5.666872,51.773165;5.666931,51.773174;5.666987,51.773189;5.667037,51.773211;5.66708,51.773238;5.667114,51.773269;5.667138,51.773304;5.66715,51.773335;5.667153,51.773367;5.667149,51.773399;5.667131,51.773439;5.667101,51.773476;5.667059,51.773508;5.667008,51.773534;5.666949,51.773553;5.666943,51.773635;5.666943,51.773696;5.666962,51.773963;5.666971,51.774147;5.666981,51.774214;5.667027,51.774505;5.667039,51.774757;5.667022,51.775013;5.66699,51.77524;5.66638,51.77743;5.665953,51.779006;5.66583,51.77946;5.66546,51.78092;5.66479,51.78332;5.66454,51.78412;5.66431,51.78465;5.66413,51.78497;5.663703,51.785566;5.66337,51.785943</t>
+        </is>
+      </c>
     </row>
     <row r="939">
       <c r="A939" s="1" t="n">
@@ -57263,6 +58269,7 @@
       <c r="R939" t="n">
         <v>1</v>
       </c>
+      <c r="S939" t="inlineStr"/>
     </row>
     <row r="940">
       <c r="A940" s="1" t="n">
@@ -57321,6 +58328,7 @@
       <c r="R940" t="n">
         <v>1</v>
       </c>
+      <c r="S940" t="inlineStr"/>
     </row>
     <row r="941">
       <c r="A941" s="1" t="n">
@@ -57383,6 +58391,7 @@
       <c r="R941" t="n">
         <v>1</v>
       </c>
+      <c r="S941" t="inlineStr"/>
     </row>
     <row r="942">
       <c r="A942" s="1" t="n">
@@ -57445,6 +58454,7 @@
       <c r="R942" t="n">
         <v>1</v>
       </c>
+      <c r="S942" t="inlineStr"/>
     </row>
     <row r="943">
       <c r="A943" s="1" t="n">
@@ -57507,6 +58517,7 @@
       <c r="R943" t="n">
         <v>1</v>
       </c>
+      <c r="S943" t="inlineStr"/>
     </row>
     <row r="944">
       <c r="A944" s="1" t="n">
@@ -57569,6 +58580,7 @@
       <c r="R944" t="n">
         <v>1</v>
       </c>
+      <c r="S944" t="inlineStr"/>
     </row>
     <row r="945">
       <c r="A945" s="1" t="n">
@@ -57631,6 +58643,7 @@
       <c r="R945" t="n">
         <v>1</v>
       </c>
+      <c r="S945" t="inlineStr"/>
     </row>
     <row r="946">
       <c r="A946" s="1" t="n">
@@ -57693,6 +58706,7 @@
       <c r="R946" t="n">
         <v>1</v>
       </c>
+      <c r="S946" t="inlineStr"/>
     </row>
     <row r="947">
       <c r="A947" s="1" t="n">
@@ -57755,6 +58769,7 @@
       <c r="R947" t="n">
         <v>1</v>
       </c>
+      <c r="S947" t="inlineStr"/>
     </row>
     <row r="948">
       <c r="A948" s="1" t="n">
@@ -57817,6 +58832,7 @@
       <c r="R948" t="n">
         <v>1</v>
       </c>
+      <c r="S948" t="inlineStr"/>
     </row>
     <row r="949">
       <c r="A949" s="1" t="n">
@@ -57879,6 +58895,7 @@
       <c r="R949" t="n">
         <v>1</v>
       </c>
+      <c r="S949" t="inlineStr"/>
     </row>
     <row r="950">
       <c r="A950" s="1" t="n">
@@ -57941,6 +58958,7 @@
       <c r="R950" t="n">
         <v>1</v>
       </c>
+      <c r="S950" t="inlineStr"/>
     </row>
     <row r="951">
       <c r="A951" s="1" t="n">
@@ -58003,6 +59021,7 @@
       <c r="R951" t="n">
         <v>1</v>
       </c>
+      <c r="S951" t="inlineStr"/>
     </row>
     <row r="952">
       <c r="A952" s="1" t="n">
@@ -58065,6 +59084,7 @@
       <c r="R952" t="n">
         <v>1</v>
       </c>
+      <c r="S952" t="inlineStr"/>
     </row>
     <row r="953">
       <c r="A953" s="1" t="n">
@@ -58127,6 +59147,7 @@
       <c r="R953" t="n">
         <v>1</v>
       </c>
+      <c r="S953" t="inlineStr"/>
     </row>
     <row r="954">
       <c r="A954" s="1" t="n">
@@ -58189,6 +59210,7 @@
       <c r="R954" t="n">
         <v>1</v>
       </c>
+      <c r="S954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" s="1" t="n">
@@ -58251,6 +59273,7 @@
       <c r="R955" t="n">
         <v>1</v>
       </c>
+      <c r="S955" t="inlineStr"/>
     </row>
     <row r="956">
       <c r="A956" s="1" t="n">
@@ -58311,6 +59334,7 @@
       <c r="R956" t="n">
         <v>1</v>
       </c>
+      <c r="S956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" s="1" t="n">
@@ -58373,6 +59397,7 @@
       <c r="R957" t="n">
         <v>1</v>
       </c>
+      <c r="S957" t="inlineStr"/>
     </row>
     <row r="958">
       <c r="A958" s="1" t="n">
@@ -58435,6 +59460,7 @@
       <c r="R958" t="n">
         <v>1</v>
       </c>
+      <c r="S958" t="inlineStr"/>
     </row>
     <row r="959">
       <c r="A959" s="1" t="n">
@@ -58499,6 +59525,11 @@
       <c r="R959" t="n">
         <v>51.476926694</v>
       </c>
+      <c r="S959" t="inlineStr">
+        <is>
+          <t>5.249914,51.467933;5.250023,51.467896;5.250187,51.467856;5.250286,51.467821;5.250372,51.467792;5.250601,51.467748;5.250606,51.467723;5.250619,51.4677;5.25064,51.467679;5.250666,51.46766;5.250722,51.467638;5.250786,51.467628;5.250835,51.467629;5.250883,51.467637;5.250925,51.467653;5.250961,51.467675;5.250986,51.467701;5.251004,51.467747;5.251141,51.467781;5.25125,51.467806;5.251372,51.467857;5.251568,51.467892;5.252414,51.468007;5.252911,51.468063;5.253202,51.468083;5.253335,51.468098;5.253739,51.468142;5.253823,51.468148;5.254178,51.468175;5.254274,51.468175;5.25443,51.46816;5.254592,51.468156;5.254741,51.468155;5.255004,51.468179;5.255956,51.468156;5.256217,51.468166;5.256498,51.468176;5.256828,51.468217;5.257193,51.468279;5.257311,51.468299;5.257395,51.468313;5.257431,51.46832;5.257459,51.468325;5.257707,51.468371;5.258284,51.468477;5.258691,51.468552;5.259041,51.468627;5.259184,51.46863;5.259311,51.468657;5.259458,51.468688;5.259493,51.468667;5.259534,51.468652;5.25958,51.468642;5.259615,51.468639;5.25965,51.46864;5.259684,51.468643;5.259726,51.468653;5.259765,51.468669;5.259797,51.468688;5.259822,51.468712;5.25984,51.468738;5.259848,51.468766;5.259974,51.468786;5.25999,51.468789;5.260104,51.468802;5.260216,51.468835;5.260234,51.46884;5.260389,51.468858;5.261116,51.468975;5.261189,51.468987;5.261652,51.469081;5.262049,51.469202;5.262109,51.469223;5.262186,51.469247;5.26275,51.46945;5.263038,51.469573;5.263229,51.469655;5.26345,51.46975;5.264166,51.470133;5.264386,51.470251;5.264406,51.470262;5.26485,51.470498;5.264962,51.470515;5.265084,51.47055;5.265191,51.470594;5.265272,51.47065;5.265342,51.470712;5.265378,51.47075;5.265412,51.470794;5.265508,51.470846;5.265738,51.470969;5.266075,51.47115;5.266204,51.471214;5.266301,51.471262;5.266525,51.47133;5.266788,51.47145;5.266971,51.471544;5.267106,51.471636;5.268691,51.47238;5.268803,51.472413;5.268912,51.472485;5.268959,51.472523;5.268997,51.472578;5.269015,51.47262;5.269021,51.472672;5.269004,51.472715;5.268917,51.472847;5.268894,51.472941;5.268876,51.473098;5.268876,51.473139;5.268932,51.473233;5.268955,51.473338;5.269028,51.473478;5.269085,51.473591;5.269102,51.473708;5.269277,51.474129;5.269394,51.474512;5.269426,51.47461;5.269451,51.474677;5.269525,51.474744;5.269547,51.474777;5.26956,51.474797;5.269591,51.474888;5.269987,51.475371;5.270196,51.475665;5.270254,51.475739;5.270331,51.47583;5.270393,51.475896;5.27045,51.475955;5.270507,51.476014;5.270535,51.476027;5.270592,51.476052;5.270652,51.476107;5.270732,51.476176;5.270787,51.476166;5.270844,51.476167;5.270899,51.476176;5.270949,51.476193;5.270989,51.476218;5.271007,51.476235;5.27102,51.476252;5.27103,51.476271;5.271036,51.476304;5.271028,51.476338;5.271008,51.476369;5.270976,51.476396;5.270935,51.476418;5.270936,51.476427;5.270946,51.47651;5.27098,51.476589;5.270969,51.476662;5.270966,51.476678;5.271003,51.476739;5.271047,51.476806;5.271055,51.476815;5.271109,51.476876;5.271163,51.476925</t>
+        </is>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="1" t="n">
@@ -58561,6 +59592,7 @@
       <c r="R960" t="n">
         <v>1</v>
       </c>
+      <c r="S960" t="inlineStr"/>
     </row>
     <row r="961">
       <c r="A961" s="1" t="n">
@@ -58621,6 +59653,7 @@
       <c r="R961" t="n">
         <v>1</v>
       </c>
+      <c r="S961" t="inlineStr"/>
     </row>
     <row r="962">
       <c r="A962" s="1" t="n">
@@ -58681,6 +59714,7 @@
       <c r="R962" t="n">
         <v>1</v>
       </c>
+      <c r="S962" t="inlineStr"/>
     </row>
     <row r="963">
       <c r="A963" s="1" t="n">
@@ -58741,6 +59775,7 @@
       <c r="R963" t="n">
         <v>1</v>
       </c>
+      <c r="S963" t="inlineStr"/>
     </row>
     <row r="964">
       <c r="A964" s="1" t="n">
@@ -58799,6 +59834,7 @@
       <c r="R964" t="n">
         <v>1</v>
       </c>
+      <c r="S964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" s="1" t="n">
@@ -58859,6 +59895,7 @@
       <c r="R965" t="n">
         <v>1</v>
       </c>
+      <c r="S965" t="inlineStr"/>
     </row>
     <row r="966">
       <c r="A966" s="1" t="n">
@@ -58921,6 +59958,7 @@
       <c r="R966" t="n">
         <v>1</v>
       </c>
+      <c r="S966" t="inlineStr"/>
     </row>
     <row r="967">
       <c r="A967" s="1" t="n">
@@ -58979,6 +60017,7 @@
       <c r="R967" t="n">
         <v>1</v>
       </c>
+      <c r="S967" t="inlineStr"/>
     </row>
     <row r="968">
       <c r="A968" s="1" t="n">
@@ -59037,6 +60076,7 @@
       <c r="R968" t="n">
         <v>1</v>
       </c>
+      <c r="S968" t="inlineStr"/>
     </row>
     <row r="969">
       <c r="A969" s="1" t="n">
@@ -59099,6 +60139,7 @@
       <c r="R969" t="n">
         <v>1</v>
       </c>
+      <c r="S969" t="inlineStr"/>
     </row>
     <row r="970">
       <c r="A970" s="1" t="n">
@@ -59161,6 +60202,7 @@
       <c r="R970" t="n">
         <v>1</v>
       </c>
+      <c r="S970" t="inlineStr"/>
     </row>
     <row r="971">
       <c r="A971" s="1" t="n">
@@ -59223,6 +60265,7 @@
       <c r="R971" t="n">
         <v>1</v>
       </c>
+      <c r="S971" t="inlineStr"/>
     </row>
     <row r="972">
       <c r="A972" s="1" t="n">
@@ -59285,6 +60328,7 @@
       <c r="R972" t="n">
         <v>1</v>
       </c>
+      <c r="S972" t="inlineStr"/>
     </row>
     <row r="973">
       <c r="A973" s="1" t="n">
@@ -59347,6 +60391,7 @@
       <c r="R973" t="n">
         <v>1</v>
       </c>
+      <c r="S973" t="inlineStr"/>
     </row>
     <row r="974">
       <c r="A974" s="1" t="n">
@@ -59409,6 +60454,7 @@
       <c r="R974" t="n">
         <v>1</v>
       </c>
+      <c r="S974" t="inlineStr"/>
     </row>
     <row r="975">
       <c r="A975" s="1" t="n">
@@ -59471,6 +60517,7 @@
       <c r="R975" t="n">
         <v>1</v>
       </c>
+      <c r="S975" t="inlineStr"/>
     </row>
     <row r="976">
       <c r="A976" s="1" t="n">
@@ -59529,6 +60576,7 @@
       <c r="R976" t="n">
         <v>1</v>
       </c>
+      <c r="S976" t="inlineStr"/>
     </row>
     <row r="977">
       <c r="A977" s="1" t="n">
@@ -59591,6 +60639,7 @@
       <c r="R977" t="n">
         <v>1</v>
       </c>
+      <c r="S977" t="inlineStr"/>
     </row>
     <row r="978">
       <c r="A978" s="1" t="n">
@@ -59651,6 +60700,7 @@
       <c r="R978" t="n">
         <v>1</v>
       </c>
+      <c r="S978" t="inlineStr"/>
     </row>
     <row r="979">
       <c r="A979" s="1" t="n">
@@ -59711,6 +60761,7 @@
       <c r="R979" t="n">
         <v>1</v>
       </c>
+      <c r="S979" t="inlineStr"/>
     </row>
     <row r="980">
       <c r="A980" s="1" t="n">
@@ -59769,6 +60820,7 @@
       <c r="R980" t="n">
         <v>1</v>
       </c>
+      <c r="S980" t="inlineStr"/>
     </row>
     <row r="981">
       <c r="A981" s="1" t="n">
@@ -59831,6 +60883,7 @@
       <c r="R981" t="n">
         <v>1</v>
       </c>
+      <c r="S981" t="inlineStr"/>
     </row>
     <row r="982">
       <c r="A982" s="1" t="n">
@@ -59893,6 +60946,7 @@
       <c r="R982" t="n">
         <v>1</v>
       </c>
+      <c r="S982" t="inlineStr"/>
     </row>
     <row r="983">
       <c r="A983" s="1" t="n">
@@ -59955,6 +61009,7 @@
       <c r="R983" t="n">
         <v>1</v>
       </c>
+      <c r="S983" t="inlineStr"/>
     </row>
     <row r="984">
       <c r="A984" s="1" t="n">
@@ -60013,6 +61068,7 @@
       <c r="R984" t="n">
         <v>1</v>
       </c>
+      <c r="S984" t="inlineStr"/>
     </row>
     <row r="985">
       <c r="A985" s="1" t="n">
@@ -60075,6 +61131,7 @@
       <c r="R985" t="n">
         <v>1</v>
       </c>
+      <c r="S985" t="inlineStr"/>
     </row>
     <row r="986">
       <c r="A986" s="1" t="n">
@@ -60133,6 +61190,7 @@
       <c r="R986" t="n">
         <v>1</v>
       </c>
+      <c r="S986" t="inlineStr"/>
     </row>
     <row r="987">
       <c r="A987" s="1" t="n">
@@ -60191,6 +61249,7 @@
       <c r="R987" t="n">
         <v>1</v>
       </c>
+      <c r="S987" t="inlineStr"/>
     </row>
     <row r="988">
       <c r="A988" s="1" t="n">
@@ -60251,6 +61310,11 @@
       <c r="R988" t="n">
         <v>51.60217018</v>
       </c>
+      <c r="S988" t="inlineStr">
+        <is>
+          <t>5.510963,51.60256;5.51127,51.60247;5.51187,51.60227;5.512229,51.602144</t>
+        </is>
+      </c>
     </row>
     <row r="989">
       <c r="A989" s="1" t="n">
@@ -60311,6 +61375,7 @@
       <c r="R989" t="n">
         <v>1</v>
       </c>
+      <c r="S989" t="inlineStr"/>
     </row>
     <row r="990">
       <c r="A990" s="1" t="n">
@@ -60373,6 +61438,7 @@
       <c r="R990" t="n">
         <v>1</v>
       </c>
+      <c r="S990" t="inlineStr"/>
     </row>
     <row r="991">
       <c r="A991" s="1" t="n">
@@ -60431,6 +61497,7 @@
       <c r="R991" t="n">
         <v>1</v>
       </c>
+      <c r="S991" t="inlineStr"/>
     </row>
     <row r="992">
       <c r="A992" s="1" t="n">
@@ -60493,6 +61560,7 @@
       <c r="R992" t="n">
         <v>1</v>
       </c>
+      <c r="S992" t="inlineStr"/>
     </row>
     <row r="993">
       <c r="A993" s="1" t="n">
@@ -60551,6 +61619,7 @@
       <c r="R993" t="n">
         <v>1</v>
       </c>
+      <c r="S993" t="inlineStr"/>
     </row>
     <row r="994">
       <c r="A994" s="1" t="n">
@@ -60609,6 +61678,7 @@
       <c r="R994" t="n">
         <v>1</v>
       </c>
+      <c r="S994" t="inlineStr"/>
     </row>
     <row r="995">
       <c r="A995" s="1" t="n">
@@ -60671,6 +61741,7 @@
       <c r="R995" t="n">
         <v>1</v>
       </c>
+      <c r="S995" t="inlineStr"/>
     </row>
     <row r="996">
       <c r="A996" s="1" t="n">
@@ -60729,6 +61800,7 @@
       <c r="R996" t="n">
         <v>1</v>
       </c>
+      <c r="S996" t="inlineStr"/>
     </row>
     <row r="997">
       <c r="A997" s="1" t="n">
@@ -60789,6 +61861,7 @@
       <c r="R997" t="n">
         <v>1</v>
       </c>
+      <c r="S997" t="inlineStr"/>
     </row>
     <row r="998">
       <c r="A998" s="1" t="n">
@@ -60847,6 +61920,7 @@
       <c r="R998" t="n">
         <v>1</v>
       </c>
+      <c r="S998" t="inlineStr"/>
     </row>
     <row r="999">
       <c r="A999" s="1" t="n">
@@ -60905,6 +61979,7 @@
       <c r="R999" t="n">
         <v>1</v>
       </c>
+      <c r="S999" t="inlineStr"/>
     </row>
     <row r="1000">
       <c r="A1000" s="1" t="n">
@@ -60967,6 +62042,7 @@
       <c r="R1000" t="n">
         <v>1</v>
       </c>
+      <c r="S1000" t="inlineStr"/>
     </row>
     <row r="1001">
       <c r="A1001" s="1" t="n">
@@ -61027,6 +62103,7 @@
       <c r="R1001" t="n">
         <v>1</v>
       </c>
+      <c r="S1001" t="inlineStr"/>
     </row>
     <row r="1002">
       <c r="A1002" s="1" t="n">
@@ -61087,6 +62164,7 @@
       <c r="R1002" t="n">
         <v>1</v>
       </c>
+      <c r="S1002" t="inlineStr"/>
     </row>
     <row r="1003">
       <c r="A1003" s="1" t="n">
@@ -61147,6 +62225,7 @@
       <c r="R1003" t="n">
         <v>1</v>
       </c>
+      <c r="S1003" t="inlineStr"/>
     </row>
     <row r="1004">
       <c r="A1004" s="1" t="n">
@@ -61205,6 +62284,7 @@
       <c r="R1004" t="n">
         <v>1</v>
       </c>
+      <c r="S1004" t="inlineStr"/>
     </row>
     <row r="1005">
       <c r="A1005" s="1" t="n">
@@ -61263,6 +62343,7 @@
       <c r="R1005" t="n">
         <v>1</v>
       </c>
+      <c r="S1005" t="inlineStr"/>
     </row>
     <row r="1006">
       <c r="A1006" s="1" t="n">
@@ -61323,6 +62404,7 @@
       <c r="R1006" t="n">
         <v>1</v>
       </c>
+      <c r="S1006" t="inlineStr"/>
     </row>
     <row r="1007">
       <c r="A1007" s="1" t="n">
@@ -61385,6 +62467,7 @@
       <c r="R1007" t="n">
         <v>1</v>
       </c>
+      <c r="S1007" t="inlineStr"/>
     </row>
     <row r="1008">
       <c r="A1008" s="1" t="n">
@@ -61447,6 +62530,7 @@
       <c r="R1008" t="n">
         <v>1</v>
       </c>
+      <c r="S1008" t="inlineStr"/>
     </row>
     <row r="1009">
       <c r="A1009" s="1" t="n">
@@ -61507,6 +62591,7 @@
       <c r="R1009" t="n">
         <v>1</v>
       </c>
+      <c r="S1009" t="inlineStr"/>
     </row>
     <row r="1010">
       <c r="A1010" s="1" t="n">
@@ -61569,6 +62654,7 @@
       <c r="R1010" t="n">
         <v>1</v>
       </c>
+      <c r="S1010" t="inlineStr"/>
     </row>
     <row r="1011">
       <c r="A1011" s="1" t="n">
@@ -61629,6 +62715,7 @@
       <c r="R1011" t="n">
         <v>1</v>
       </c>
+      <c r="S1011" t="inlineStr"/>
     </row>
     <row r="1012">
       <c r="A1012" s="1" t="n">
@@ -61689,6 +62776,7 @@
       <c r="R1012" t="n">
         <v>1</v>
       </c>
+      <c r="S1012" t="inlineStr"/>
     </row>
     <row r="1013">
       <c r="A1013" s="1" t="n">
@@ -61747,6 +62835,7 @@
       <c r="R1013" t="n">
         <v>1</v>
       </c>
+      <c r="S1013" t="inlineStr"/>
     </row>
     <row r="1014">
       <c r="A1014" s="1" t="n">
@@ -61807,6 +62896,7 @@
       <c r="R1014" t="n">
         <v>1</v>
       </c>
+      <c r="S1014" t="inlineStr"/>
     </row>
     <row r="1015">
       <c r="A1015" s="1" t="n">
@@ -61871,6 +62961,11 @@
       <c r="R1015" t="n">
         <v>51.473032262</v>
       </c>
+      <c r="S1015" t="inlineStr">
+        <is>
+          <t>5.200475,51.474555;5.203549,51.474049;5.209276,51.473115;5.209647,51.473051;5.210218,51.472954;5.210797,51.472861;5.211001,51.472826;5.2118,51.4727;5.21225,51.472628;5.212415,51.47261;5.212598,51.472596;5.21279,51.472587;5.213168,51.472587;5.216238,51.472681;5.218066,51.472747;5.220362,51.472812;5.222652,51.472883;5.22447,51.472942;5.225388,51.472972;5.227078,51.473025;5.232741,51.473206;5.232988,51.47321;5.23544,51.47327;5.236659,51.473309;5.236831,51.473313;5.236975,51.473287;5.237094,51.473271;5.237175,51.473267;5.237289,51.473272;5.237389,51.473286;5.237533,51.473313;5.237629,51.473325;5.23806,51.473334;5.23848,51.473345;5.238855,51.473356;5.239408,51.473365;5.239571,51.473373;5.239615,51.473378;5.239768,51.473394;5.240388,51.473411;5.240791,51.473429;5.241212,51.473478;5.241413,51.47351;5.241644,51.473552;5.241827,51.473548;5.241921,51.473552;5.242014,51.47356;5.242188,51.473592;5.242283,51.473614;5.242385,51.473621;5.242614,51.473621;5.242772,51.473615;5.242952,51.473596;5.243193,51.473548;5.243389,51.473499;5.243578,51.473445;5.243723,51.473383;5.243914,51.473318;5.244042,51.47324;5.244118,51.473186;5.244308,51.473033</t>
+        </is>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="1" t="n">
@@ -61933,6 +63028,7 @@
       <c r="R1016" t="n">
         <v>1</v>
       </c>
+      <c r="S1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" s="1" t="n">
@@ -61993,6 +63089,7 @@
       <c r="R1017" t="n">
         <v>1</v>
       </c>
+      <c r="S1017" t="inlineStr"/>
     </row>
     <row r="1018">
       <c r="A1018" s="1" t="n">
@@ -62053,6 +63150,7 @@
       <c r="R1018" t="n">
         <v>1</v>
       </c>
+      <c r="S1018" t="inlineStr"/>
     </row>
     <row r="1019">
       <c r="A1019" s="1" t="n">
@@ -62115,6 +63213,7 @@
       <c r="R1019" t="n">
         <v>1</v>
       </c>
+      <c r="S1019" t="inlineStr"/>
     </row>
     <row r="1020">
       <c r="A1020" s="1" t="n">
@@ -62177,6 +63276,7 @@
       <c r="R1020" t="n">
         <v>1</v>
       </c>
+      <c r="S1020" t="inlineStr"/>
     </row>
     <row r="1021">
       <c r="A1021" s="1" t="n">
@@ -62239,6 +63339,7 @@
       <c r="R1021" t="n">
         <v>1</v>
       </c>
+      <c r="S1021" t="inlineStr"/>
     </row>
     <row r="1022">
       <c r="A1022" s="1" t="n">
@@ -62301,6 +63402,7 @@
       <c r="R1022" t="n">
         <v>1</v>
       </c>
+      <c r="S1022" t="inlineStr"/>
     </row>
     <row r="1023">
       <c r="A1023" s="1" t="n">
@@ -62363,6 +63465,7 @@
       <c r="R1023" t="n">
         <v>1</v>
       </c>
+      <c r="S1023" t="inlineStr"/>
     </row>
     <row r="1024">
       <c r="A1024" s="1" t="n">
@@ -62425,6 +63528,7 @@
       <c r="R1024" t="n">
         <v>1</v>
       </c>
+      <c r="S1024" t="inlineStr"/>
     </row>
     <row r="1025">
       <c r="A1025" s="1" t="n">
@@ -62485,6 +63589,7 @@
       <c r="R1025" t="n">
         <v>1</v>
       </c>
+      <c r="S1025" t="inlineStr"/>
     </row>
     <row r="1026">
       <c r="A1026" s="1" t="n">
@@ -62543,6 +63648,7 @@
       <c r="R1026" t="n">
         <v>1</v>
       </c>
+      <c r="S1026" t="inlineStr"/>
     </row>
     <row r="1027">
       <c r="A1027" s="1" t="n">
@@ -62601,6 +63707,7 @@
       <c r="R1027" t="n">
         <v>1</v>
       </c>
+      <c r="S1027" t="inlineStr"/>
     </row>
     <row r="1028">
       <c r="A1028" s="1" t="n">
@@ -62659,6 +63766,7 @@
       <c r="R1028" t="n">
         <v>1</v>
       </c>
+      <c r="S1028" t="inlineStr"/>
     </row>
     <row r="1029">
       <c r="A1029" s="1" t="n">
@@ -62721,6 +63829,7 @@
       <c r="R1029" t="n">
         <v>1</v>
       </c>
+      <c r="S1029" t="inlineStr"/>
     </row>
     <row r="1030">
       <c r="A1030" s="1" t="n">
@@ -62783,6 +63892,7 @@
       <c r="R1030" t="n">
         <v>1</v>
       </c>
+      <c r="S1030" t="inlineStr"/>
     </row>
     <row r="1031">
       <c r="A1031" s="1" t="n">
@@ -62841,6 +63951,7 @@
       <c r="R1031" t="n">
         <v>1</v>
       </c>
+      <c r="S1031" t="inlineStr"/>
     </row>
     <row r="1032">
       <c r="A1032" s="1" t="n">
@@ -62903,6 +64014,7 @@
       <c r="R1032" t="n">
         <v>1</v>
       </c>
+      <c r="S1032" t="inlineStr"/>
     </row>
     <row r="1033">
       <c r="A1033" s="1" t="n">
@@ -62961,6 +64073,7 @@
       <c r="R1033" t="n">
         <v>1</v>
       </c>
+      <c r="S1033" t="inlineStr"/>
     </row>
     <row r="1034">
       <c r="A1034" s="1" t="n">
@@ -63019,6 +64132,7 @@
       <c r="R1034" t="n">
         <v>1</v>
       </c>
+      <c r="S1034" t="inlineStr"/>
     </row>
     <row r="1035">
       <c r="A1035" s="1" t="n">
@@ -63081,6 +64195,7 @@
       <c r="R1035" t="n">
         <v>1</v>
       </c>
+      <c r="S1035" t="inlineStr"/>
     </row>
     <row r="1036">
       <c r="A1036" s="1" t="n">
@@ -63139,6 +64254,7 @@
       <c r="R1036" t="n">
         <v>1</v>
       </c>
+      <c r="S1036" t="inlineStr"/>
     </row>
     <row r="1037">
       <c r="A1037" s="1" t="n">
@@ -63201,6 +64317,7 @@
       <c r="R1037" t="n">
         <v>1</v>
       </c>
+      <c r="S1037" t="inlineStr"/>
     </row>
     <row r="1038">
       <c r="A1038" s="1" t="n">
@@ -63263,6 +64380,7 @@
       <c r="R1038" t="n">
         <v>1</v>
       </c>
+      <c r="S1038" t="inlineStr"/>
     </row>
     <row r="1039">
       <c r="A1039" s="1" t="n">
@@ -63325,6 +64443,7 @@
       <c r="R1039" t="n">
         <v>1</v>
       </c>
+      <c r="S1039" t="inlineStr"/>
     </row>
     <row r="1040">
       <c r="A1040" s="1" t="n">
@@ -63387,6 +64506,7 @@
       <c r="R1040" t="n">
         <v>1</v>
       </c>
+      <c r="S1040" t="inlineStr"/>
     </row>
     <row r="1041">
       <c r="A1041" s="1" t="n">
@@ -63447,6 +64567,7 @@
       <c r="R1041" t="n">
         <v>1</v>
       </c>
+      <c r="S1041" t="inlineStr"/>
     </row>
     <row r="1042">
       <c r="A1042" s="1" t="n">
@@ -63509,6 +64630,7 @@
       <c r="R1042" t="n">
         <v>1</v>
       </c>
+      <c r="S1042" t="inlineStr"/>
     </row>
     <row r="1043">
       <c r="A1043" s="1" t="n">
@@ -63571,6 +64693,7 @@
       <c r="R1043" t="n">
         <v>1</v>
       </c>
+      <c r="S1043" t="inlineStr"/>
     </row>
     <row r="1044">
       <c r="A1044" s="1" t="n">
@@ -63633,6 +64756,7 @@
       <c r="R1044" t="n">
         <v>1</v>
       </c>
+      <c r="S1044" t="inlineStr"/>
     </row>
     <row r="1045">
       <c r="A1045" s="1" t="n">
@@ -63695,6 +64819,7 @@
       <c r="R1045" t="n">
         <v>1</v>
       </c>
+      <c r="S1045" t="inlineStr"/>
     </row>
     <row r="1046">
       <c r="A1046" s="1" t="n">
@@ -63757,6 +64882,7 @@
       <c r="R1046" t="n">
         <v>1</v>
       </c>
+      <c r="S1046" t="inlineStr"/>
     </row>
     <row r="1047">
       <c r="A1047" s="1" t="n">
@@ -63817,6 +64943,7 @@
       <c r="R1047" t="n">
         <v>1</v>
       </c>
+      <c r="S1047" t="inlineStr"/>
     </row>
     <row r="1048">
       <c r="A1048" s="1" t="n">
@@ -63875,6 +65002,7 @@
       <c r="R1048" t="n">
         <v>1</v>
       </c>
+      <c r="S1048" t="inlineStr"/>
     </row>
     <row r="1049">
       <c r="A1049" s="1" t="n">
@@ -63933,6 +65061,7 @@
       <c r="R1049" t="n">
         <v>1</v>
       </c>
+      <c r="S1049" t="inlineStr"/>
     </row>
     <row r="1050">
       <c r="A1050" s="1" t="n">
@@ -63995,6 +65124,7 @@
       <c r="R1050" t="n">
         <v>1</v>
       </c>
+      <c r="S1050" t="inlineStr"/>
     </row>
     <row r="1051">
       <c r="A1051" s="1" t="n">
@@ -64057,6 +65187,7 @@
       <c r="R1051" t="n">
         <v>1</v>
       </c>
+      <c r="S1051" t="inlineStr"/>
     </row>
     <row r="1052">
       <c r="A1052" s="1" t="n">
@@ -64119,6 +65250,7 @@
       <c r="R1052" t="n">
         <v>1</v>
       </c>
+      <c r="S1052" t="inlineStr"/>
     </row>
     <row r="1053">
       <c r="A1053" s="1" t="n">
@@ -64181,6 +65313,7 @@
       <c r="R1053" t="n">
         <v>1</v>
       </c>
+      <c r="S1053" t="inlineStr"/>
     </row>
     <row r="1054">
       <c r="A1054" s="1" t="n">
@@ -64239,6 +65372,7 @@
       <c r="R1054" t="n">
         <v>1</v>
       </c>
+      <c r="S1054" t="inlineStr"/>
     </row>
     <row r="1055">
       <c r="A1055" s="1" t="n">
@@ -64301,6 +65435,7 @@
       <c r="R1055" t="n">
         <v>1</v>
       </c>
+      <c r="S1055" t="inlineStr"/>
     </row>
     <row r="1056">
       <c r="A1056" s="1" t="n">
@@ -64363,6 +65498,7 @@
       <c r="R1056" t="n">
         <v>1</v>
       </c>
+      <c r="S1056" t="inlineStr"/>
     </row>
     <row r="1057">
       <c r="A1057" s="1" t="n">
@@ -64421,6 +65557,7 @@
       <c r="R1057" t="n">
         <v>1</v>
       </c>
+      <c r="S1057" t="inlineStr"/>
     </row>
     <row r="1058">
       <c r="A1058" s="1" t="n">
@@ -64483,6 +65620,7 @@
       <c r="R1058" t="n">
         <v>1</v>
       </c>
+      <c r="S1058" t="inlineStr"/>
     </row>
     <row r="1059">
       <c r="A1059" s="1" t="n">
@@ -64545,6 +65683,7 @@
       <c r="R1059" t="n">
         <v>1</v>
       </c>
+      <c r="S1059" t="inlineStr"/>
     </row>
     <row r="1060">
       <c r="A1060" s="1" t="n">
@@ -64603,6 +65742,7 @@
       <c r="R1060" t="n">
         <v>1</v>
       </c>
+      <c r="S1060" t="inlineStr"/>
     </row>
     <row r="1061">
       <c r="A1061" s="1" t="n">
@@ -64661,6 +65801,7 @@
       <c r="R1061" t="n">
         <v>1</v>
       </c>
+      <c r="S1061" t="inlineStr"/>
     </row>
     <row r="1062">
       <c r="A1062" s="1" t="n">
@@ -64723,6 +65864,7 @@
       <c r="R1062" t="n">
         <v>1</v>
       </c>
+      <c r="S1062" t="inlineStr"/>
     </row>
     <row r="1063">
       <c r="A1063" s="1" t="n">
@@ -64781,6 +65923,7 @@
       <c r="R1063" t="n">
         <v>1</v>
       </c>
+      <c r="S1063" t="inlineStr"/>
     </row>
     <row r="1064">
       <c r="A1064" s="1" t="n">
@@ -64843,6 +65986,7 @@
       <c r="R1064" t="n">
         <v>1</v>
       </c>
+      <c r="S1064" t="inlineStr"/>
     </row>
     <row r="1065">
       <c r="A1065" s="1" t="n">
@@ -64901,6 +66045,7 @@
       <c r="R1065" t="n">
         <v>1</v>
       </c>
+      <c r="S1065" t="inlineStr"/>
     </row>
     <row r="1066">
       <c r="A1066" s="1" t="n">
@@ -64963,6 +66108,7 @@
       <c r="R1066" t="n">
         <v>1</v>
       </c>
+      <c r="S1066" t="inlineStr"/>
     </row>
     <row r="1067">
       <c r="A1067" s="1" t="n">
@@ -65025,6 +66171,7 @@
       <c r="R1067" t="n">
         <v>1</v>
       </c>
+      <c r="S1067" t="inlineStr"/>
     </row>
     <row r="1068">
       <c r="A1068" s="1" t="n">
@@ -65083,6 +66230,7 @@
       <c r="R1068" t="n">
         <v>1</v>
       </c>
+      <c r="S1068" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
